--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-208364.0396650518</v>
+        <v>-209176.27647059</v>
       </c>
     </row>
     <row r="7">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="R10" t="n">
         <v>10.00967878293136</v>
@@ -1342,10 +1342,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="T10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.5465712312742</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>289.5578881889559</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>280.5391922334839</v>
       </c>
       <c r="E11" t="n">
-        <v>302.2813298033895</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>321.4531458913667</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>322.8491597882405</v>
       </c>
       <c r="H11" t="n">
-        <v>235.4343762339799</v>
+        <v>15.75712414989093</v>
       </c>
       <c r="I11" t="n">
-        <v>61.82000905557406</v>
+        <v>61.82000905557402</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.55747718688171</v>
+        <v>84.55747718688166</v>
       </c>
       <c r="T11" t="n">
-        <v>127.7487278674188</v>
+        <v>131.2069945273323</v>
       </c>
       <c r="U11" t="n">
         <v>163.7369697115373</v>
       </c>
       <c r="V11" t="n">
-        <v>245.0529484714534</v>
+        <v>245.0529484714533</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.3530479494102</v>
       </c>
       <c r="X11" t="n">
-        <v>289.6533061821569</v>
+        <v>289.6533061821568</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>301.0499039783556</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I12" t="n">
-        <v>57.80139480404329</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.33892434428704</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S12" t="n">
         <v>145.9321186766747</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.16328210597131</v>
+        <v>93.16328210597125</v>
       </c>
       <c r="C13" t="n">
-        <v>79.36327695137179</v>
+        <v>79.36327695137173</v>
       </c>
       <c r="D13" t="n">
-        <v>62.98464134895018</v>
+        <v>62.98464134895012</v>
       </c>
       <c r="E13" t="n">
-        <v>61.93239120472963</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.39931553291594</v>
+        <v>32.29601407483161</v>
       </c>
       <c r="G13" t="n">
-        <v>78.43302460524716</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>67.07973325206103</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.8162700318314</v>
       </c>
       <c r="T13" t="n">
         <v>141.2609306242059</v>
@@ -1588,13 +1588,13 @@
         <v>169.5714185055969</v>
       </c>
       <c r="W13" t="n">
-        <v>194.7383045762102</v>
+        <v>194.7383045762101</v>
       </c>
       <c r="X13" t="n">
-        <v>21.65122608372109</v>
+        <v>140.3834065720132</v>
       </c>
       <c r="Y13" t="n">
-        <v>131.258274328081</v>
+        <v>131.2582743280809</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>301.5465712312742</v>
+        <v>301.5465712312743</v>
       </c>
       <c r="C14" t="n">
         <v>289.557888188956</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15.31757513695089</v>
       </c>
       <c r="E14" t="n">
-        <v>302.2813298033895</v>
+        <v>302.2813298033896</v>
       </c>
       <c r="F14" t="n">
-        <v>321.4531458913667</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>271.0904347220228</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>61.82000905557412</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.55747718688171</v>
+        <v>84.55747718688177</v>
       </c>
       <c r="T14" t="n">
         <v>131.2069945273324</v>
       </c>
       <c r="U14" t="n">
-        <v>163.7369697115373</v>
+        <v>163.7369697115374</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>245.0529484714534</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>270.3530479494103</v>
       </c>
       <c r="X14" t="n">
         <v>289.6533061821569</v>
       </c>
       <c r="Y14" t="n">
-        <v>301.0499039783556</v>
+        <v>301.0499039783557</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>96.16225684418836</v>
       </c>
       <c r="I15" t="n">
-        <v>57.80139480404329</v>
+        <v>57.8013948040433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.33892434428587</v>
+        <v>41.33892434428589</v>
       </c>
       <c r="S15" t="n">
         <v>145.9321186766747</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.16328210597131</v>
+        <v>93.16328210597136</v>
       </c>
       <c r="C16" t="n">
-        <v>79.36327695137179</v>
+        <v>79.36327695137184</v>
       </c>
       <c r="D16" t="n">
-        <v>62.98464134895018</v>
+        <v>62.98464134895023</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>78.43302460524716</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>67.07973325206105</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.63407987987206</v>
+        <v>48.63407987987212</v>
       </c>
       <c r="S16" t="n">
-        <v>88.22372069756288</v>
+        <v>118.8162700318315</v>
       </c>
       <c r="T16" t="n">
-        <v>141.2609306242059</v>
+        <v>141.260930624206</v>
       </c>
       <c r="U16" t="n">
-        <v>195.7486591160982</v>
+        <v>195.7486591160983</v>
       </c>
       <c r="V16" t="n">
-        <v>169.5714185055969</v>
+        <v>169.571418505597</v>
       </c>
       <c r="W16" t="n">
         <v>194.7383045762102</v>
@@ -1831,7 +1831,7 @@
         <v>140.3834065720133</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>114.9202085230385</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G17" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H17" t="n">
         <v>158.0673555229409</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.19045647584201</v>
+        <v>7.190456475842742</v>
       </c>
       <c r="T17" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629339</v>
       </c>
       <c r="U17" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049834</v>
       </c>
       <c r="V17" t="n">
         <v>167.6859277604144</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>41.33892434428704</v>
+        <v>41.33892434428587</v>
       </c>
       <c r="S18" t="n">
         <v>145.9321186766747</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493234</v>
       </c>
       <c r="C19" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332826</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.066003894208225</v>
+        <v>1.066003894208197</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.16184339928599</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>17.97203610473857</v>
       </c>
       <c r="R19" t="n">
-        <v>137.1906127714368</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.44924932079251</v>
+        <v>41.44924932079248</v>
       </c>
       <c r="T19" t="n">
-        <v>63.89390991316695</v>
+        <v>201.2743299791515</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3816384050593</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V19" t="n">
-        <v>92.20439779455796</v>
+        <v>92.20439779455793</v>
       </c>
       <c r="W19" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X19" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097431</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.89125361704203</v>
+        <v>53.891253617042</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G20" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H20" t="n">
         <v>158.0673555229409</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.190456475842771</v>
+        <v>7.190456475842742</v>
       </c>
       <c r="T20" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629339</v>
       </c>
       <c r="U20" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049834</v>
       </c>
       <c r="V20" t="n">
         <v>167.6859277604144</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493234</v>
       </c>
       <c r="C22" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332826</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.066003894208225</v>
+        <v>1.066003894208197</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>135.5136776720123</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>41.44924932079251</v>
+        <v>41.44924932079248</v>
       </c>
       <c r="T22" t="n">
-        <v>63.89390991316695</v>
+        <v>63.89390991316692</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3816384050593</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V22" t="n">
-        <v>92.20439779455796</v>
+        <v>92.20439779455793</v>
       </c>
       <c r="W22" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X22" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097431</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.73003211575255</v>
+        <v>209.2437097877651</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>244.0861251803277</v>
       </c>
       <c r="G23" t="n">
-        <v>245.4821390772016</v>
+        <v>245.4821390772015</v>
       </c>
       <c r="H23" t="n">
         <v>158.0673555229409</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.19045647584278</v>
+        <v>7.190456475842751</v>
       </c>
       <c r="T23" t="n">
-        <v>53.83997381629342</v>
+        <v>53.83997381629339</v>
       </c>
       <c r="U23" t="n">
-        <v>86.36994900049837</v>
+        <v>86.36994900049834</v>
       </c>
       <c r="V23" t="n">
         <v>167.6859277604144</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.79626139493237</v>
+        <v>15.79626139493234</v>
       </c>
       <c r="C25" t="n">
-        <v>1.996256240332855</v>
+        <v>1.996256240332826</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.066003894208225</v>
+        <v>1.066003894208197</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>41.44924932079251</v>
+        <v>196.8017054915157</v>
       </c>
       <c r="T25" t="n">
-        <v>63.89390991316695</v>
+        <v>63.89390991316692</v>
       </c>
       <c r="U25" t="n">
-        <v>118.3816384050593</v>
+        <v>118.3816384050592</v>
       </c>
       <c r="V25" t="n">
-        <v>92.20439779455796</v>
+        <v>92.20439779455793</v>
       </c>
       <c r="W25" t="n">
         <v>117.3712838651712</v>
       </c>
       <c r="X25" t="n">
-        <v>63.01638586097434</v>
+        <v>63.01638586097431</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.70253554724994</v>
+        <v>53.891253617042</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.5730604774219</v>
+        <v>287.573060477422</v>
       </c>
       <c r="C26" t="n">
-        <v>275.5843774351036</v>
+        <v>275.5843774351038</v>
       </c>
       <c r="D26" t="n">
-        <v>266.5656814796316</v>
+        <v>266.5656814796317</v>
       </c>
       <c r="E26" t="n">
-        <v>288.3078190495372</v>
+        <v>288.3078190495373</v>
       </c>
       <c r="F26" t="n">
-        <v>307.4796351375143</v>
+        <v>307.4796351375145</v>
       </c>
       <c r="G26" t="n">
-        <v>308.8756490343882</v>
+        <v>308.8756490343883</v>
       </c>
       <c r="H26" t="n">
-        <v>221.4608654801276</v>
+        <v>221.4608654801277</v>
       </c>
       <c r="I26" t="n">
-        <v>47.84649830172174</v>
+        <v>47.84649830172188</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.58396643302937</v>
+        <v>70.58396643302952</v>
       </c>
       <c r="T26" t="n">
-        <v>117.23348377348</v>
+        <v>117.2334837734802</v>
       </c>
       <c r="U26" t="n">
-        <v>149.763458957685</v>
+        <v>149.7634589576851</v>
       </c>
       <c r="V26" t="n">
-        <v>231.079437717601</v>
+        <v>231.0794377176012</v>
       </c>
       <c r="W26" t="n">
-        <v>256.3795371955579</v>
+        <v>256.3795371955581</v>
       </c>
       <c r="X26" t="n">
-        <v>275.6797954283045</v>
+        <v>275.6797954283047</v>
       </c>
       <c r="Y26" t="n">
-        <v>287.0763932245033</v>
+        <v>287.0763932245035</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.18977135211898</v>
+        <v>79.18977135211912</v>
       </c>
       <c r="C28" t="n">
-        <v>65.38976619751946</v>
+        <v>65.38976619751961</v>
       </c>
       <c r="D28" t="n">
-        <v>49.01113059509785</v>
+        <v>49.011130595098</v>
       </c>
       <c r="E28" t="n">
-        <v>47.9588804508773</v>
+        <v>47.95888045087744</v>
       </c>
       <c r="F28" t="n">
-        <v>48.42580477906361</v>
+        <v>48.42580477906375</v>
       </c>
       <c r="G28" t="n">
-        <v>64.45951385139483</v>
+        <v>64.45951385139497</v>
       </c>
       <c r="H28" t="n">
-        <v>53.10622249820871</v>
+        <v>53.10622249820885</v>
       </c>
       <c r="I28" t="n">
-        <v>32.98363402659525</v>
+        <v>32.9836340265954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66056912601974</v>
+        <v>34.66056912601988</v>
       </c>
       <c r="S28" t="n">
-        <v>104.8427592779791</v>
+        <v>104.8427592779793</v>
       </c>
       <c r="T28" t="n">
-        <v>127.2874198703536</v>
+        <v>127.2874198703537</v>
       </c>
       <c r="U28" t="n">
-        <v>181.7751483622459</v>
+        <v>181.775148362246</v>
       </c>
       <c r="V28" t="n">
-        <v>155.5979077517446</v>
+        <v>155.5979077517447</v>
       </c>
       <c r="W28" t="n">
-        <v>180.7647938223578</v>
+        <v>180.764793822358</v>
       </c>
       <c r="X28" t="n">
-        <v>126.4098958181609</v>
+        <v>126.4098958181611</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.2847635742286</v>
+        <v>117.2847635742288</v>
       </c>
     </row>
     <row r="29">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>284.9833563827019</v>
+        <v>284.983356382702</v>
       </c>
       <c r="C32" t="n">
-        <v>272.9946733403836</v>
+        <v>272.9946733403838</v>
       </c>
       <c r="D32" t="n">
-        <v>263.9759773849116</v>
+        <v>263.9759773849117</v>
       </c>
       <c r="E32" t="n">
-        <v>285.7181149548171</v>
+        <v>285.7181149548172</v>
       </c>
       <c r="F32" t="n">
-        <v>304.8899310427943</v>
+        <v>304.8899310427944</v>
       </c>
       <c r="G32" t="n">
-        <v>306.2859449396681</v>
+        <v>306.2859449396683</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8711613854075</v>
+        <v>218.8711613854076</v>
       </c>
       <c r="I32" t="n">
-        <v>45.2567942070017</v>
+        <v>45.25679420700183</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.99426233830935</v>
+        <v>67.99426233830948</v>
       </c>
       <c r="T32" t="n">
-        <v>114.64377967876</v>
+        <v>114.6437796787601</v>
       </c>
       <c r="U32" t="n">
-        <v>147.1737548629649</v>
+        <v>147.1737548629651</v>
       </c>
       <c r="V32" t="n">
-        <v>228.489733622881</v>
+        <v>228.4897336228811</v>
       </c>
       <c r="W32" t="n">
-        <v>253.7898331008379</v>
+        <v>253.789833100838</v>
       </c>
       <c r="X32" t="n">
-        <v>273.0900913335845</v>
+        <v>273.0900913335846</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.4866891297833</v>
+        <v>284.4866891297834</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.60006725739895</v>
+        <v>76.60006725739908</v>
       </c>
       <c r="C34" t="n">
-        <v>62.80006210279943</v>
+        <v>62.80006210279956</v>
       </c>
       <c r="D34" t="n">
-        <v>46.42142650037782</v>
+        <v>46.42142650037795</v>
       </c>
       <c r="E34" t="n">
-        <v>45.36917635615727</v>
+        <v>45.3691763561574</v>
       </c>
       <c r="F34" t="n">
-        <v>45.83610068434358</v>
+        <v>45.83610068434371</v>
       </c>
       <c r="G34" t="n">
-        <v>61.8698097566748</v>
+        <v>61.86980975667493</v>
       </c>
       <c r="H34" t="n">
-        <v>50.51651840348867</v>
+        <v>50.5165184034888</v>
       </c>
       <c r="I34" t="n">
-        <v>30.39392993187522</v>
+        <v>30.39392993187535</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.0708650312997</v>
+        <v>32.07086503129983</v>
       </c>
       <c r="S34" t="n">
-        <v>102.2530551832591</v>
+        <v>102.2530551832592</v>
       </c>
       <c r="T34" t="n">
-        <v>124.6977157756335</v>
+        <v>124.6977157756337</v>
       </c>
       <c r="U34" t="n">
-        <v>179.1854442675258</v>
+        <v>179.185444267526</v>
       </c>
       <c r="V34" t="n">
-        <v>153.0082036570245</v>
+        <v>153.0082036570247</v>
       </c>
       <c r="W34" t="n">
-        <v>178.1750897276378</v>
+        <v>178.1750897276379</v>
       </c>
       <c r="X34" t="n">
-        <v>123.8201917234409</v>
+        <v>123.820191723441</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.6950594795086</v>
+        <v>114.6950594795087</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>237.3901961984366</v>
+        <v>237.3901961984367</v>
       </c>
       <c r="C35" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561185</v>
       </c>
       <c r="D35" t="n">
-        <v>216.3828172006463</v>
+        <v>216.3828172006464</v>
       </c>
       <c r="E35" t="n">
-        <v>238.1249547705519</v>
+        <v>238.124954770552</v>
       </c>
       <c r="F35" t="n">
-        <v>257.296770858529</v>
+        <v>257.2967708585292</v>
       </c>
       <c r="G35" t="n">
-        <v>258.6927847554029</v>
+        <v>258.692784755403</v>
       </c>
       <c r="H35" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011424</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>20.40110215404411</v>
+        <v>20.4011021540442</v>
       </c>
       <c r="T35" t="n">
-        <v>67.05061949449475</v>
+        <v>67.05061949449484</v>
       </c>
       <c r="U35" t="n">
-        <v>99.5805946786997</v>
+        <v>99.58059467869978</v>
       </c>
       <c r="V35" t="n">
-        <v>180.8965734386157</v>
+        <v>180.8965734386158</v>
       </c>
       <c r="W35" t="n">
         <v>206.1966729165727</v>
       </c>
       <c r="X35" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493194</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.893528945518</v>
+        <v>236.8935289455181</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.0069070731337</v>
+        <v>29.00690707313379</v>
       </c>
       <c r="C37" t="n">
-        <v>15.20690191853419</v>
+        <v>15.20690191853427</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>14.27664957240956</v>
+        <v>14.27664957240964</v>
       </c>
       <c r="H37" t="n">
-        <v>2.923358219223431</v>
+        <v>2.923358219223517</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>54.65989499899384</v>
+        <v>74.98253616847916</v>
       </c>
       <c r="T37" t="n">
-        <v>77.10455559136828</v>
+        <v>77.10455559136837</v>
       </c>
       <c r="U37" t="n">
-        <v>151.9149252527468</v>
+        <v>131.5922840832607</v>
       </c>
       <c r="V37" t="n">
-        <v>105.4150434727593</v>
+        <v>105.4150434727594</v>
       </c>
       <c r="W37" t="n">
         <v>130.5819295433726</v>
       </c>
       <c r="X37" t="n">
-        <v>76.22703153917567</v>
+        <v>76.22703153917575</v>
       </c>
       <c r="Y37" t="n">
-        <v>67.10189929524336</v>
+        <v>67.10189929524344</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>237.3901961984367</v>
       </c>
       <c r="C38" t="n">
-        <v>225.4015131561184</v>
+        <v>225.4015131561185</v>
       </c>
       <c r="D38" t="n">
         <v>216.3828172006464</v>
       </c>
       <c r="E38" t="n">
-        <v>238.1249547705519</v>
+        <v>238.124954770552</v>
       </c>
       <c r="F38" t="n">
-        <v>257.2967708585291</v>
+        <v>257.2967708585292</v>
       </c>
       <c r="G38" t="n">
         <v>258.692784755403</v>
       </c>
       <c r="H38" t="n">
-        <v>171.2780012011423</v>
+        <v>171.2780012011424</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>20.40110215404417</v>
+        <v>20.4011021540442</v>
       </c>
       <c r="T38" t="n">
-        <v>67.05061949449481</v>
+        <v>67.05061949449484</v>
       </c>
       <c r="U38" t="n">
-        <v>99.58059467869975</v>
+        <v>99.58059467869978</v>
       </c>
       <c r="V38" t="n">
         <v>180.8965734386158</v>
@@ -3566,7 +3566,7 @@
         <v>206.1966729165727</v>
       </c>
       <c r="X38" t="n">
-        <v>225.4969311493193</v>
+        <v>225.4969311493194</v>
       </c>
       <c r="Y38" t="n">
         <v>236.8935289455181</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.00690707313376</v>
+        <v>49.32954824261897</v>
       </c>
       <c r="C40" t="n">
-        <v>17.55750698328124</v>
+        <v>15.20690191853427</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>14.27664957240961</v>
+        <v>14.27664957240964</v>
       </c>
       <c r="H40" t="n">
-        <v>2.923358219223488</v>
+        <v>2.923358219223517</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3703,16 +3703,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.97203610473857</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>54.6598949989939</v>
+        <v>54.65989499899393</v>
       </c>
       <c r="T40" t="n">
-        <v>77.10455559136834</v>
+        <v>77.10455559136837</v>
       </c>
       <c r="U40" t="n">
         <v>131.5922840832607</v>
@@ -3724,10 +3724,10 @@
         <v>130.5819295433726</v>
       </c>
       <c r="X40" t="n">
-        <v>76.22703153917573</v>
+        <v>76.22703153917575</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.10189929524341</v>
+        <v>67.10189929524344</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>20.40110215404416</v>
+        <v>20.40110215404417</v>
       </c>
       <c r="T41" t="n">
         <v>67.05061949449481</v>
@@ -3913,7 +3913,7 @@
         <v>14.27664957240961</v>
       </c>
       <c r="H43" t="n">
-        <v>23.24599938870898</v>
+        <v>2.923358219223488</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>54.6598949989939</v>
       </c>
       <c r="T43" t="n">
-        <v>77.10455559136834</v>
+        <v>97.42719676085386</v>
       </c>
       <c r="U43" t="n">
         <v>131.5922840832607</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>20.40110215404559</v>
+        <v>20.40110215404417</v>
       </c>
       <c r="T44" t="n">
         <v>67.05061949449481</v>
@@ -4153,7 +4153,7 @@
         <v>2.923358219223488</v>
       </c>
       <c r="I46" t="n">
-        <v>20.3226411694855</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>130.5819295433726</v>
       </c>
       <c r="X46" t="n">
-        <v>76.22703153917573</v>
+        <v>96.54967270866121</v>
       </c>
       <c r="Y46" t="n">
         <v>67.10189929524341</v>
@@ -4781,43 +4781,43 @@
         <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F8" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="J8" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M8" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="N8" t="n">
-        <v>10.3099691464193</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P8" t="n">
         <v>30.12913313662339</v>
@@ -4829,19 +4829,19 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W8" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X8" t="n">
         <v>29.92792848229982</v>
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
         <v>0.8007743026345088</v>
@@ -4881,19 +4881,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="K9" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
-        <v>10.3099691464193</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M9" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="N9" t="n">
-        <v>30.12913313662339</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O9" t="n">
         <v>30.12913313662339</v>
@@ -4908,25 +4908,25 @@
         <v>29.92792848229982</v>
       </c>
       <c r="S9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="T9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>29.92792848229982</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="V9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>29.92792848229982</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.92792848229982</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="10">
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="C10" t="n">
         <v>0.8007743026345088</v>
@@ -4963,49 +4963,49 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>10.71035629773655</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L10" t="n">
         <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>30.52952028794065</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="Q10" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="S10" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="T10" t="n">
         <v>9.70635518344859</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="V10" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="W10" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1307.03354028609</v>
+        <v>1030.958138915985</v>
       </c>
       <c r="C11" t="n">
-        <v>1307.03354028609</v>
+        <v>738.4754235736043</v>
       </c>
       <c r="D11" t="n">
-        <v>1307.03354028609</v>
+        <v>455.102502125641</v>
       </c>
       <c r="E11" t="n">
-        <v>1001.69886371701</v>
+        <v>455.102502125641</v>
       </c>
       <c r="F11" t="n">
-        <v>676.9987163519934</v>
+        <v>455.102502125641</v>
       </c>
       <c r="G11" t="n">
-        <v>350.8884539396291</v>
+        <v>128.9922397132768</v>
       </c>
       <c r="H11" t="n">
         <v>113.075952693185</v>
       </c>
       <c r="I11" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J11" t="n">
-        <v>167.7728174862799</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K11" t="n">
         <v>475.5705058676344</v>
       </c>
       <c r="L11" t="n">
-        <v>907.3907625372514</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.206447688016</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N11" t="n">
-        <v>1680.442745084106</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O11" t="n">
-        <v>2075.063371992038</v>
+        <v>2261.880583602966</v>
       </c>
       <c r="P11" t="n">
-        <v>2379.705487326029</v>
+        <v>2379.705487326028</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.5749550848</v>
@@ -5066,25 +5066,25 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S11" t="n">
-        <v>2446.163361966738</v>
+        <v>2446.163361966737</v>
       </c>
       <c r="T11" t="n">
-        <v>2317.124242908739</v>
+        <v>2313.631044262361</v>
       </c>
       <c r="U11" t="n">
-        <v>2151.733364412236</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V11" t="n">
-        <v>1904.205133632991</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W11" t="n">
-        <v>1904.205133632991</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X11" t="n">
-        <v>1611.626036479297</v>
+        <v>1335.048951015334</v>
       </c>
       <c r="Y11" t="n">
-        <v>1611.626036479297</v>
+        <v>1030.958138915985</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>916.8525970584468</v>
+        <v>916.8525970584473</v>
       </c>
       <c r="C12" t="n">
-        <v>755.1489242994015</v>
+        <v>755.1489242994021</v>
       </c>
       <c r="D12" t="n">
-        <v>616.3102872896136</v>
+        <v>616.3102872896141</v>
       </c>
       <c r="E12" t="n">
-        <v>469.2822773464849</v>
+        <v>469.2822773464852</v>
       </c>
       <c r="F12" t="n">
-        <v>334.5884792963592</v>
+        <v>334.5884792963597</v>
       </c>
       <c r="G12" t="n">
-        <v>206.1503391504149</v>
+        <v>206.1503391504153</v>
       </c>
       <c r="H12" t="n">
-        <v>109.0167463785074</v>
+        <v>109.0167463785078</v>
       </c>
       <c r="I12" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J12" t="n">
         <v>137.7723726368145</v>
       </c>
       <c r="K12" t="n">
-        <v>413.2166240983117</v>
+        <v>137.7723726368145</v>
       </c>
       <c r="L12" t="n">
-        <v>840.8288884799133</v>
+        <v>565.384637018416</v>
       </c>
       <c r="M12" t="n">
-        <v>1395.757592620664</v>
+        <v>935.8484231522283</v>
       </c>
       <c r="N12" t="n">
-        <v>1981.038188119039</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.038188119039</v>
+        <v>1981.038188119038</v>
       </c>
       <c r="P12" t="n">
         <v>2337.476724739038</v>
@@ -5142,22 +5142,22 @@
         <v>2531.5749550848</v>
       </c>
       <c r="R12" t="n">
-        <v>2489.818465848146</v>
+        <v>2489.818465848147</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.412285366657</v>
+        <v>2342.412285366658</v>
       </c>
       <c r="T12" t="n">
-        <v>2154.897535411934</v>
+        <v>2154.897535411935</v>
       </c>
       <c r="U12" t="n">
-        <v>1936.42184563069</v>
+        <v>1936.421845630691</v>
       </c>
       <c r="V12" t="n">
-        <v>1708.026223079024</v>
+        <v>1708.026223079025</v>
       </c>
       <c r="W12" t="n">
-        <v>1466.710354312334</v>
+        <v>1466.710354312335</v>
       </c>
       <c r="X12" t="n">
         <v>1268.793366190129</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>466.9874414201564</v>
+        <v>227.0395116018511</v>
       </c>
       <c r="C13" t="n">
-        <v>386.8225152066495</v>
+        <v>146.8745853883443</v>
       </c>
       <c r="D13" t="n">
-        <v>323.2016653592251</v>
+        <v>83.25373554091993</v>
       </c>
       <c r="E13" t="n">
-        <v>260.6436944453568</v>
+        <v>83.25373554091993</v>
       </c>
       <c r="F13" t="n">
-        <v>197.6140827959468</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="G13" t="n">
-        <v>118.3888054169092</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="H13" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="I13" t="n">
-        <v>50.631499101696</v>
+        <v>50.63149910169599</v>
       </c>
       <c r="J13" t="n">
-        <v>96.30823560199553</v>
+        <v>96.30823560199558</v>
       </c>
       <c r="K13" t="n">
-        <v>245.3024804191788</v>
+        <v>245.3024804191789</v>
       </c>
       <c r="L13" t="n">
-        <v>469.0514186062462</v>
+        <v>469.0514186062467</v>
       </c>
       <c r="M13" t="n">
-        <v>712.114973706438</v>
+        <v>712.1149737064386</v>
       </c>
       <c r="N13" t="n">
-        <v>954.7180978637573</v>
+        <v>954.7180978637579</v>
       </c>
       <c r="O13" t="n">
         <v>1174.575435216289</v>
@@ -5224,25 +5224,25 @@
         <v>1423.949153884687</v>
       </c>
       <c r="S13" t="n">
-        <v>1423.949153884687</v>
+        <v>1303.9327195091</v>
       </c>
       <c r="T13" t="n">
-        <v>1281.261345173368</v>
+        <v>1161.244910797781</v>
       </c>
       <c r="U13" t="n">
-        <v>1083.535426874278</v>
+        <v>963.5189924986919</v>
       </c>
       <c r="V13" t="n">
-        <v>912.2511657575137</v>
+        <v>792.2347313819273</v>
       </c>
       <c r="W13" t="n">
-        <v>715.5458075997255</v>
+        <v>595.5293732241394</v>
       </c>
       <c r="X13" t="n">
-        <v>693.6758822626335</v>
+        <v>453.7279524443281</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.0917667797235</v>
+        <v>321.1438369614181</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1246.97776031961</v>
+        <v>726.3656427227778</v>
       </c>
       <c r="C14" t="n">
-        <v>954.4950449772305</v>
+        <v>433.8829273803979</v>
       </c>
       <c r="D14" t="n">
-        <v>954.4950449772305</v>
+        <v>418.4106292622654</v>
       </c>
       <c r="E14" t="n">
-        <v>649.1603684081501</v>
+        <v>113.075952693185</v>
       </c>
       <c r="F14" t="n">
-        <v>324.4602210431333</v>
+        <v>113.075952693185</v>
       </c>
       <c r="G14" t="n">
-        <v>50.631499101696</v>
+        <v>113.075952693185</v>
       </c>
       <c r="H14" t="n">
-        <v>50.631499101696</v>
+        <v>113.075952693185</v>
       </c>
       <c r="I14" t="n">
         <v>50.631499101696</v>
       </c>
       <c r="J14" t="n">
-        <v>50.631499101696</v>
+        <v>167.7728174862798</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4291874830506</v>
+        <v>475.5705058676344</v>
       </c>
       <c r="L14" t="n">
-        <v>790.2494441526676</v>
+        <v>907.3907625372512</v>
       </c>
       <c r="M14" t="n">
-        <v>1276.882340914361</v>
+        <v>1394.023659298945</v>
       </c>
       <c r="N14" t="n">
-        <v>1750.118638310451</v>
+        <v>1867.259956695035</v>
       </c>
       <c r="O14" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P14" t="n">
         <v>2379.705487326029</v>
@@ -5309,19 +5309,19 @@
         <v>2313.631044262362</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.24016576586</v>
+        <v>2148.240165765859</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.24016576586</v>
+        <v>1900.711934986613</v>
       </c>
       <c r="W14" t="n">
-        <v>2148.24016576586</v>
+        <v>1627.628048169027</v>
       </c>
       <c r="X14" t="n">
-        <v>1855.661068612166</v>
+        <v>1335.048951015333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1551.570256512817</v>
+        <v>1030.958138915984</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>50.631499101696</v>
       </c>
       <c r="K15" t="n">
-        <v>326.0757505631933</v>
+        <v>326.0757505631932</v>
       </c>
       <c r="L15" t="n">
-        <v>753.6880149447949</v>
+        <v>753.6880149447948</v>
       </c>
       <c r="M15" t="n">
-        <v>1129.946653497991</v>
+        <v>1292.286959772228</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.227248996366</v>
+        <v>1877.567555270603</v>
       </c>
       <c r="O15" t="n">
-        <v>2175.1364184648</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="P15" t="n">
-        <v>2531.5749550848</v>
+        <v>2337.476724739038</v>
       </c>
       <c r="Q15" t="n">
         <v>2531.5749550848</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341.3998588568779</v>
+        <v>194.4172751626274</v>
       </c>
       <c r="C16" t="n">
-        <v>261.234932643371</v>
+        <v>114.2523489491205</v>
       </c>
       <c r="D16" t="n">
-        <v>197.6140827959466</v>
+        <v>50.631499101696</v>
       </c>
       <c r="E16" t="n">
-        <v>197.6140827959466</v>
+        <v>50.631499101696</v>
       </c>
       <c r="F16" t="n">
-        <v>197.6140827959466</v>
+        <v>50.631499101696</v>
       </c>
       <c r="G16" t="n">
-        <v>118.388805416909</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H16" t="n">
         <v>50.631499101696</v>
@@ -5434,52 +5434,52 @@
         <v>50.631499101696</v>
       </c>
       <c r="J16" t="n">
-        <v>96.30823560199565</v>
+        <v>96.30823560199548</v>
       </c>
       <c r="K16" t="n">
-        <v>245.3024804191789</v>
+        <v>245.3024804191787</v>
       </c>
       <c r="L16" t="n">
-        <v>469.0514186062467</v>
+        <v>469.0514186062463</v>
       </c>
       <c r="M16" t="n">
-        <v>712.1149737064385</v>
+        <v>712.114973706438</v>
       </c>
       <c r="N16" t="n">
-        <v>954.7180978637577</v>
+        <v>954.7180978637572</v>
       </c>
       <c r="O16" t="n">
-        <v>1174.575435216289</v>
+        <v>1174.575435216288</v>
       </c>
       <c r="P16" t="n">
-        <v>1354.070502065729</v>
+        <v>1354.070502065728</v>
       </c>
       <c r="Q16" t="n">
-        <v>1423.949153884687</v>
+        <v>1423.949153884686</v>
       </c>
       <c r="R16" t="n">
-        <v>1374.823820672695</v>
+        <v>1374.823820672694</v>
       </c>
       <c r="S16" t="n">
-        <v>1285.708951281217</v>
+        <v>1254.807386297107</v>
       </c>
       <c r="T16" t="n">
-        <v>1143.021142569898</v>
+        <v>1112.119577585788</v>
       </c>
       <c r="U16" t="n">
-        <v>945.2952242708089</v>
+        <v>914.3936592866986</v>
       </c>
       <c r="V16" t="n">
-        <v>774.0109631540444</v>
+        <v>743.109398169934</v>
       </c>
       <c r="W16" t="n">
-        <v>577.3056049962563</v>
+        <v>546.404040012146</v>
       </c>
       <c r="X16" t="n">
-        <v>435.5041842164449</v>
+        <v>404.6026192323343</v>
       </c>
       <c r="Y16" t="n">
-        <v>435.5041842164449</v>
+        <v>288.5216005221944</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>1351.553688872588</v>
       </c>
       <c r="C17" t="n">
-        <v>1137.219479298935</v>
+        <v>1137.219479298934</v>
       </c>
       <c r="D17" t="n">
-        <v>931.9950636196972</v>
+        <v>931.995063619697</v>
       </c>
       <c r="E17" t="n">
-        <v>704.8088928193431</v>
+        <v>704.808892819343</v>
       </c>
       <c r="F17" t="n">
         <v>458.2572512230524</v>
@@ -5540,22 +5540,22 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.311867735465</v>
+        <v>2524.311867735464</v>
       </c>
       <c r="T17" t="n">
-        <v>2469.928055799815</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U17" t="n">
-        <v>2382.685683072039</v>
+        <v>2382.685683072038</v>
       </c>
       <c r="V17" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.370577012659</v>
+        <v>2018.370577012658</v>
       </c>
       <c r="X17" t="n">
-        <v>1803.939985627691</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y17" t="n">
         <v>1577.997679297068</v>
@@ -5592,28 +5592,28 @@
         <v>50.631499101696</v>
       </c>
       <c r="J18" t="n">
-        <v>50.631499101696</v>
+        <v>137.7723726368145</v>
       </c>
       <c r="K18" t="n">
-        <v>326.0757505631933</v>
+        <v>413.2166240983117</v>
       </c>
       <c r="L18" t="n">
-        <v>753.6880149447949</v>
+        <v>840.8288884799133</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.946653497991</v>
+        <v>1397.968746744155</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.227248996366</v>
+        <v>1981.038188119037</v>
       </c>
       <c r="O18" t="n">
-        <v>2175.1364184648</v>
+        <v>1981.038188119037</v>
       </c>
       <c r="P18" t="n">
-        <v>2531.5749550848</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="Q18" t="n">
-        <v>2531.5749550848</v>
+        <v>2531.574955084799</v>
       </c>
       <c r="R18" t="n">
         <v>2489.818465848146</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.06998751970315</v>
+        <v>53.72469115678795</v>
       </c>
       <c r="C19" t="n">
-        <v>70.05356707492248</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D19" t="n">
-        <v>70.05356707492248</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E19" t="n">
-        <v>70.05356707492248</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F19" t="n">
-        <v>70.05356707492248</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G19" t="n">
-        <v>68.97679546461114</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H19" t="n">
-        <v>68.97679546461114</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I19" t="n">
-        <v>68.97679546461114</v>
+        <v>50.631499101696</v>
       </c>
       <c r="J19" t="n">
         <v>50.631499101696</v>
@@ -5692,31 +5692,31 @@
         <v>782.3679601895351</v>
       </c>
       <c r="Q19" t="n">
-        <v>782.3679601895351</v>
+        <v>764.2143883665668</v>
       </c>
       <c r="R19" t="n">
-        <v>643.7915836527302</v>
+        <v>764.2143883665668</v>
       </c>
       <c r="S19" t="n">
-        <v>601.9236550458691</v>
+        <v>722.3464597597057</v>
       </c>
       <c r="T19" t="n">
-        <v>537.3843521032761</v>
+        <v>519.0390557403607</v>
       </c>
       <c r="U19" t="n">
-        <v>417.8069395729132</v>
+        <v>399.4616432099979</v>
       </c>
       <c r="V19" t="n">
-        <v>324.6711842248748</v>
+        <v>306.3258878619595</v>
       </c>
       <c r="W19" t="n">
-        <v>206.114331835813</v>
+        <v>187.7690354728977</v>
       </c>
       <c r="X19" t="n">
-        <v>142.4614168247278</v>
+        <v>124.1161204618125</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.02580711054392</v>
+        <v>69.6805107476287</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1137.219479298934</v>
       </c>
       <c r="D20" t="n">
-        <v>931.9950636196968</v>
+        <v>931.9950636196966</v>
       </c>
       <c r="E20" t="n">
         <v>704.8088928193426</v>
@@ -5753,16 +5753,16 @@
         <v>167.7728174862799</v>
       </c>
       <c r="K20" t="n">
-        <v>475.5705058676345</v>
+        <v>288.7532942567058</v>
       </c>
       <c r="L20" t="n">
-        <v>907.3907625372515</v>
+        <v>720.5735509263227</v>
       </c>
       <c r="M20" t="n">
-        <v>1394.023659298945</v>
+        <v>1207.206447688016</v>
       </c>
       <c r="N20" t="n">
-        <v>1867.259956695035</v>
+        <v>1680.442745084106</v>
       </c>
       <c r="O20" t="n">
         <v>2075.063371992038</v>
@@ -5777,22 +5777,22 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S20" t="n">
-        <v>2524.311867735463</v>
+        <v>2524.311867735464</v>
       </c>
       <c r="T20" t="n">
-        <v>2469.928055799813</v>
+        <v>2469.928055799814</v>
       </c>
       <c r="U20" t="n">
         <v>2382.685683072038</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.305958061519</v>
+        <v>2213.305958061518</v>
       </c>
       <c r="W20" t="n">
         <v>2018.370577012658</v>
       </c>
       <c r="X20" t="n">
-        <v>1803.939985627691</v>
+        <v>1803.93998562769</v>
       </c>
       <c r="Y20" t="n">
         <v>1577.997679297068</v>
@@ -5829,25 +5829,25 @@
         <v>50.631499101696</v>
       </c>
       <c r="J21" t="n">
-        <v>50.631499101696</v>
+        <v>137.7723726368145</v>
       </c>
       <c r="K21" t="n">
-        <v>145.1945308521455</v>
+        <v>413.2166240983117</v>
       </c>
       <c r="L21" t="n">
-        <v>572.8067952337472</v>
+        <v>413.2166240983117</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.946653497989</v>
+        <v>935.8484231522274</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.227248996364</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O21" t="n">
-        <v>2175.136418464799</v>
+        <v>1981.038188119037</v>
       </c>
       <c r="P21" t="n">
-        <v>2531.574955084799</v>
+        <v>2337.476724739037</v>
       </c>
       <c r="Q21" t="n">
         <v>2531.574955084799</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>190.6071938557903</v>
+        <v>53.72469115678795</v>
       </c>
       <c r="C22" t="n">
-        <v>188.5907734110097</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="D22" t="n">
-        <v>188.5907734110097</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="E22" t="n">
-        <v>188.5907734110097</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="F22" t="n">
-        <v>188.5907734110097</v>
+        <v>51.70827071200731</v>
       </c>
       <c r="G22" t="n">
-        <v>187.5140018006983</v>
+        <v>50.631499101696</v>
       </c>
       <c r="H22" t="n">
-        <v>187.5140018006983</v>
+        <v>50.631499101696</v>
       </c>
       <c r="I22" t="n">
         <v>50.631499101696</v>
@@ -5938,22 +5938,22 @@
         <v>740.500031582674</v>
       </c>
       <c r="T22" t="n">
-        <v>675.960728640081</v>
+        <v>675.9607286400811</v>
       </c>
       <c r="U22" t="n">
-        <v>556.3833161097181</v>
+        <v>556.3833161097182</v>
       </c>
       <c r="V22" t="n">
-        <v>463.2475607616797</v>
+        <v>463.2475607616798</v>
       </c>
       <c r="W22" t="n">
-        <v>344.6907083726179</v>
+        <v>344.690708372618</v>
       </c>
       <c r="X22" t="n">
-        <v>281.0377933615327</v>
+        <v>281.0377933615329</v>
       </c>
       <c r="Y22" t="n">
-        <v>206.5630134466311</v>
+        <v>69.6805107476287</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.553688872588</v>
+        <v>1351.553688872589</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.219479298934</v>
+        <v>1137.219479298935</v>
       </c>
       <c r="D23" t="n">
-        <v>931.995063619697</v>
+        <v>931.9950636196978</v>
       </c>
       <c r="E23" t="n">
-        <v>704.8088928193429</v>
+        <v>704.8088928193438</v>
       </c>
       <c r="F23" t="n">
-        <v>458.2572512230522</v>
+        <v>458.257251223053</v>
       </c>
       <c r="G23" t="n">
         <v>210.2954945794141</v>
@@ -5987,25 +5987,25 @@
         <v>50.63149910169601</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63149910169601</v>
+        <v>167.7728174862799</v>
       </c>
       <c r="K23" t="n">
-        <v>358.4291874830506</v>
+        <v>475.5705058676345</v>
       </c>
       <c r="L23" t="n">
-        <v>790.2494441526676</v>
+        <v>907.3907625372515</v>
       </c>
       <c r="M23" t="n">
-        <v>1276.882340914361</v>
+        <v>1207.206447688017</v>
       </c>
       <c r="N23" t="n">
-        <v>1750.118638310451</v>
+        <v>1680.442745084107</v>
       </c>
       <c r="O23" t="n">
-        <v>2144.739265218383</v>
+        <v>2075.063371992038</v>
       </c>
       <c r="P23" t="n">
-        <v>2449.381380552373</v>
+        <v>2379.705487326029</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.5749550848</v>
@@ -6014,7 +6014,7 @@
         <v>2531.5749550848</v>
       </c>
       <c r="S23" t="n">
-        <v>2524.311867735465</v>
+        <v>2524.311867735464</v>
       </c>
       <c r="T23" t="n">
         <v>2469.928055799815</v>
@@ -6029,10 +6029,10 @@
         <v>2018.370577012659</v>
       </c>
       <c r="X23" t="n">
-        <v>1803.939985627691</v>
+        <v>1803.939985627692</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.997679297068</v>
+        <v>1577.997679297069</v>
       </c>
     </row>
     <row r="24">
@@ -6078,10 +6078,10 @@
         <v>1397.968746744155</v>
       </c>
       <c r="N24" t="n">
-        <v>1877.567555270602</v>
+        <v>1521.129018650603</v>
       </c>
       <c r="O24" t="n">
-        <v>2337.476724739037</v>
+        <v>1981.038188119037</v>
       </c>
       <c r="P24" t="n">
         <v>2337.476724739037</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.7965843290253</v>
+        <v>53.72469115678796</v>
       </c>
       <c r="C25" t="n">
-        <v>204.7801638842446</v>
+        <v>51.70827071200732</v>
       </c>
       <c r="D25" t="n">
-        <v>51.70827071200735</v>
+        <v>51.70827071200732</v>
       </c>
       <c r="E25" t="n">
-        <v>51.70827071200735</v>
+        <v>51.70827071200732</v>
       </c>
       <c r="F25" t="n">
-        <v>51.70827071200735</v>
+        <v>51.70827071200732</v>
       </c>
       <c r="G25" t="n">
         <v>50.63149910169601</v>
@@ -6172,25 +6172,25 @@
         <v>782.3679601895351</v>
       </c>
       <c r="S25" t="n">
-        <v>740.500031582674</v>
+        <v>583.5783586829535</v>
       </c>
       <c r="T25" t="n">
-        <v>675.960728640081</v>
+        <v>519.0390557403607</v>
       </c>
       <c r="U25" t="n">
-        <v>556.3833161097181</v>
+        <v>399.4616432099979</v>
       </c>
       <c r="V25" t="n">
-        <v>463.2475607616797</v>
+        <v>306.3258878619595</v>
       </c>
       <c r="W25" t="n">
-        <v>344.6907083726179</v>
+        <v>187.7690354728977</v>
       </c>
       <c r="X25" t="n">
-        <v>281.0377933615327</v>
+        <v>124.1161204618125</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.7524039198661</v>
+        <v>69.6805107476287</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1803.368283428341</v>
+        <v>1803.36828342834</v>
       </c>
       <c r="C26" t="n">
-        <v>1525.000225413085</v>
+        <v>1525.000225413084</v>
       </c>
       <c r="D26" t="n">
-        <v>1255.741961292245</v>
+        <v>1255.741961292243</v>
       </c>
       <c r="E26" t="n">
-        <v>964.5219420502882</v>
+        <v>964.521942050287</v>
       </c>
       <c r="F26" t="n">
-        <v>653.936452012395</v>
+        <v>653.9364520123936</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9408469271543</v>
+        <v>341.9408469271528</v>
       </c>
       <c r="H26" t="n">
-        <v>118.2430030078329</v>
+        <v>118.243003007833</v>
       </c>
       <c r="I26" t="n">
         <v>69.9132067434675</v>
       </c>
       <c r="J26" t="n">
-        <v>288.5592683370143</v>
+        <v>288.5592683370141</v>
       </c>
       <c r="K26" t="n">
-        <v>697.8616999273318</v>
+        <v>597.7292596894084</v>
       </c>
       <c r="L26" t="n">
-        <v>1231.186699805912</v>
+        <v>1131.054259567988</v>
       </c>
       <c r="M26" t="n">
-        <v>1819.324339776568</v>
+        <v>1719.191899538645</v>
       </c>
       <c r="N26" t="n">
-        <v>2394.065380381621</v>
+        <v>2293.932940143697</v>
       </c>
       <c r="O26" t="n">
         <v>2790.058310260591</v>
@@ -6257,19 +6257,19 @@
         <v>3305.945741005183</v>
       </c>
       <c r="U26" t="n">
-        <v>3154.669519835805</v>
+        <v>3154.669519835804</v>
       </c>
       <c r="V26" t="n">
         <v>2921.255946383682</v>
       </c>
       <c r="W26" t="n">
-        <v>2662.28671689322</v>
+        <v>2662.286716893219</v>
       </c>
       <c r="X26" t="n">
-        <v>2383.82227706665</v>
+        <v>2383.822277066649</v>
       </c>
       <c r="Y26" t="n">
-        <v>2093.846122294424</v>
+        <v>2093.846122294423</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J27" t="n">
-        <v>69.9132067434675</v>
+        <v>157.054080278586</v>
       </c>
       <c r="K27" t="n">
-        <v>164.4762384939169</v>
+        <v>157.054080278586</v>
       </c>
       <c r="L27" t="n">
-        <v>592.0885028755185</v>
+        <v>584.6663446601876</v>
       </c>
       <c r="M27" t="n">
-        <v>1149.228361139761</v>
+        <v>1141.80620292443</v>
       </c>
       <c r="N27" t="n">
-        <v>1734.508956638136</v>
+        <v>1540.410726292374</v>
       </c>
       <c r="O27" t="n">
-        <v>2194.418126106571</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P27" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380808</v>
       </c>
       <c r="Q27" t="n">
         <v>2550.85666272657</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.8980071462523</v>
+        <v>434.8980071462534</v>
       </c>
       <c r="C28" t="n">
-        <v>368.8477382598689</v>
+        <v>368.84773825987</v>
       </c>
       <c r="D28" t="n">
-        <v>319.3415457395681</v>
+        <v>319.341545739569</v>
       </c>
       <c r="E28" t="n">
-        <v>270.8982321528233</v>
+        <v>270.8982321528241</v>
       </c>
       <c r="F28" t="n">
-        <v>221.9832778305368</v>
+        <v>221.9832778305374</v>
       </c>
       <c r="G28" t="n">
-        <v>156.8726577786229</v>
+        <v>156.8726577786233</v>
       </c>
       <c r="H28" t="n">
-        <v>103.2300087905334</v>
+        <v>103.2300087905336</v>
       </c>
       <c r="I28" t="n">
         <v>69.9132067434675</v>
@@ -6385,13 +6385,13 @@
         <v>129.4237188900807</v>
       </c>
       <c r="K28" t="n">
-        <v>292.2517393535778</v>
+        <v>292.2517393535776</v>
       </c>
       <c r="L28" t="n">
-        <v>529.8344531869594</v>
+        <v>529.8344531869591</v>
       </c>
       <c r="M28" t="n">
-        <v>786.7317839334651</v>
+        <v>786.7317839334646</v>
       </c>
       <c r="N28" t="n">
         <v>1043.168683737098</v>
@@ -6400,34 +6400,34 @@
         <v>1276.859796735943</v>
       </c>
       <c r="P28" t="n">
-        <v>1470.188639231697</v>
+        <v>1470.188639231696</v>
       </c>
       <c r="Q28" t="n">
-        <v>1553.901066696969</v>
+        <v>1553.901066696971</v>
       </c>
       <c r="R28" t="n">
-        <v>1518.8903908121</v>
+        <v>1518.890390812103</v>
       </c>
       <c r="S28" t="n">
-        <v>1412.988613763637</v>
+        <v>1412.988613763639</v>
       </c>
       <c r="T28" t="n">
-        <v>1284.415462379441</v>
+        <v>1284.415462379443</v>
       </c>
       <c r="U28" t="n">
-        <v>1100.804201407475</v>
+        <v>1100.804201407477</v>
       </c>
       <c r="V28" t="n">
-        <v>943.6345976178344</v>
+        <v>943.6345976178363</v>
       </c>
       <c r="W28" t="n">
-        <v>761.04389678717</v>
+        <v>761.0438967871717</v>
       </c>
       <c r="X28" t="n">
-        <v>633.3571333344821</v>
+        <v>633.3571333344837</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.8876751786956</v>
+        <v>514.887675178697</v>
       </c>
     </row>
     <row r="29">
@@ -6540,25 +6540,25 @@
         <v>69.9132067434675</v>
       </c>
       <c r="J30" t="n">
-        <v>69.9132067434675</v>
+        <v>157.054080278586</v>
       </c>
       <c r="K30" t="n">
-        <v>164.4762384939169</v>
+        <v>432.4983317400832</v>
       </c>
       <c r="L30" t="n">
-        <v>592.0885028755185</v>
+        <v>860.1105961216848</v>
       </c>
       <c r="M30" t="n">
-        <v>1149.228361139761</v>
+        <v>955.1301307939988</v>
       </c>
       <c r="N30" t="n">
-        <v>1734.508956638136</v>
+        <v>1540.410726292374</v>
       </c>
       <c r="O30" t="n">
-        <v>2194.418126106571</v>
+        <v>2000.319895760809</v>
       </c>
       <c r="P30" t="n">
-        <v>2550.85666272657</v>
+        <v>2356.758432380808</v>
       </c>
       <c r="Q30" t="n">
         <v>2550.85666272657</v>
@@ -6634,7 +6634,7 @@
         <v>1043.168683737098</v>
       </c>
       <c r="O31" t="n">
-        <v>1276.859796735943</v>
+        <v>1276.859796735944</v>
       </c>
       <c r="P31" t="n">
         <v>1470.188639231697</v>
@@ -6643,7 +6643,7 @@
         <v>1553.901066696969</v>
       </c>
       <c r="R31" t="n">
-        <v>1518.890390812101</v>
+        <v>1518.8903908121</v>
       </c>
       <c r="S31" t="n">
         <v>1412.988613763637</v>
@@ -6655,13 +6655,13 @@
         <v>1100.804201407476</v>
       </c>
       <c r="V31" t="n">
-        <v>943.6345976178349</v>
+        <v>943.6345976178347</v>
       </c>
       <c r="W31" t="n">
-        <v>761.0438967871704</v>
+        <v>761.0438967871703</v>
       </c>
       <c r="X31" t="n">
-        <v>633.3571333344826</v>
+        <v>633.3571333344825</v>
       </c>
       <c r="Y31" t="n">
         <v>514.8876751786961</v>
@@ -6683,40 +6683,40 @@
         <v>1241.861873379913</v>
       </c>
       <c r="E32" t="n">
-        <v>953.2577168598955</v>
+        <v>953.2577168598951</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2880895439419</v>
+        <v>645.2880895439412</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9083471806407</v>
+        <v>335.9083471806398</v>
       </c>
       <c r="H32" t="n">
-        <v>114.826365983259</v>
+        <v>114.8263659832591</v>
       </c>
       <c r="I32" t="n">
         <v>69.11243244083299</v>
       </c>
       <c r="J32" t="n">
-        <v>290.3223010881526</v>
+        <v>290.3223010881525</v>
       </c>
       <c r="K32" t="n">
-        <v>702.1885397322428</v>
+        <v>702.1885397322426</v>
       </c>
       <c r="L32" t="n">
-        <v>1238.077346664596</v>
+        <v>1134.008796401859</v>
       </c>
       <c r="M32" t="n">
-        <v>1828.778793689025</v>
+        <v>1724.710243426289</v>
       </c>
       <c r="N32" t="n">
-        <v>2406.083641347851</v>
+        <v>2302.015091085114</v>
       </c>
       <c r="O32" t="n">
-        <v>2846.396724230283</v>
+        <v>2742.328173967548</v>
       </c>
       <c r="P32" t="n">
-        <v>3255.107389827009</v>
+        <v>3151.038839564274</v>
       </c>
       <c r="Q32" t="n">
         <v>3406.976857585781</v>
@@ -6728,7 +6728,7 @@
         <v>3386.94054897265</v>
       </c>
       <c r="T32" t="n">
-        <v>3271.138751317337</v>
+        <v>3271.138751317336</v>
       </c>
       <c r="U32" t="n">
         <v>3122.478392869897</v>
@@ -6777,19 +6777,19 @@
         <v>69.11243244083299</v>
       </c>
       <c r="J33" t="n">
-        <v>156.2533059759514</v>
+        <v>69.11243244083299</v>
       </c>
       <c r="K33" t="n">
-        <v>431.6975574374487</v>
+        <v>69.11243244083299</v>
       </c>
       <c r="L33" t="n">
-        <v>859.3098218190503</v>
+        <v>496.7246968224346</v>
       </c>
       <c r="M33" t="n">
-        <v>1416.449680083292</v>
+        <v>1053.864555086677</v>
       </c>
       <c r="N33" t="n">
-        <v>1539.60995198974</v>
+        <v>1639.145150585052</v>
       </c>
       <c r="O33" t="n">
         <v>1999.519121458175</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.7861937900419</v>
+        <v>415.7861937900428</v>
       </c>
       <c r="C34" t="n">
-        <v>352.351787625598</v>
+        <v>352.3517876255988</v>
       </c>
       <c r="D34" t="n">
-        <v>305.4614578272366</v>
+        <v>305.4614578272373</v>
       </c>
       <c r="E34" t="n">
-        <v>259.6340069624313</v>
+        <v>259.6340069624318</v>
       </c>
       <c r="F34" t="n">
-        <v>213.3349153620842</v>
+        <v>213.3349153620846</v>
       </c>
       <c r="G34" t="n">
-        <v>150.8401580321097</v>
+        <v>150.8401580321099</v>
       </c>
       <c r="H34" t="n">
-        <v>99.81337176595949</v>
+        <v>99.8133717659596</v>
       </c>
       <c r="I34" t="n">
         <v>69.11243244083299</v>
       </c>
       <c r="J34" t="n">
-        <v>131.1867516412192</v>
+        <v>131.186751641219</v>
       </c>
       <c r="K34" t="n">
-        <v>296.5785791584891</v>
+        <v>296.5785791584888</v>
       </c>
       <c r="L34" t="n">
-        <v>536.7251000456434</v>
+        <v>536.7251000456431</v>
       </c>
       <c r="M34" t="n">
-        <v>733.8219778647085</v>
+        <v>733.8219778647108</v>
       </c>
       <c r="N34" t="n">
-        <v>992.8226847221143</v>
+        <v>992.8226847221165</v>
       </c>
       <c r="O34" t="n">
-        <v>1229.077604774732</v>
+        <v>1229.077604774734</v>
       </c>
       <c r="P34" t="n">
-        <v>1424.970254324259</v>
+        <v>1424.970254324261</v>
       </c>
       <c r="Q34" t="n">
-        <v>1511.246488843303</v>
+        <v>1511.246488843306</v>
       </c>
       <c r="R34" t="n">
-        <v>1478.851675680374</v>
+        <v>1478.851675680377</v>
       </c>
       <c r="S34" t="n">
-        <v>1375.56576135385</v>
+        <v>1375.565761353852</v>
       </c>
       <c r="T34" t="n">
-        <v>1249.608472691594</v>
+        <v>1249.608472691596</v>
       </c>
       <c r="U34" t="n">
-        <v>1068.613074441568</v>
+        <v>1068.61307444157</v>
       </c>
       <c r="V34" t="n">
-        <v>914.0593333738665</v>
+        <v>914.0593333738678</v>
       </c>
       <c r="W34" t="n">
-        <v>734.0844952651414</v>
+        <v>734.0844952651427</v>
       </c>
       <c r="X34" t="n">
-        <v>609.013594534393</v>
+        <v>609.0135945343941</v>
       </c>
       <c r="Y34" t="n">
-        <v>493.1599991005459</v>
+        <v>493.1599991005469</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1435.43080428974</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C35" t="n">
-        <v>1207.752508172449</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D35" t="n">
-        <v>989.184005949574</v>
+        <v>989.1840059495726</v>
       </c>
       <c r="E35" t="n">
-        <v>748.6537486055822</v>
+        <v>748.6537486055809</v>
       </c>
       <c r="F35" t="n">
-        <v>488.7580204656539</v>
+        <v>488.7580204656524</v>
       </c>
       <c r="G35" t="n">
-        <v>227.4521772783769</v>
+        <v>227.452177278377</v>
       </c>
       <c r="H35" t="n">
         <v>54.44409525702108</v>
@@ -6971,16 +6971,16 @@
         <v>2533.283231207379</v>
       </c>
       <c r="V35" t="n">
-        <v>2350.559419653222</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W35" t="n">
-        <v>2142.279952060724</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X35" t="n">
-        <v>1914.505274132119</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y35" t="n">
-        <v>1675.218881257858</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>141.5849687921395</v>
       </c>
       <c r="K36" t="n">
-        <v>417.0292202536368</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="L36" t="n">
-        <v>844.6414846352384</v>
+        <v>569.1972331737411</v>
       </c>
       <c r="M36" t="n">
-        <v>1401.78134289948</v>
+        <v>1126.337091437983</v>
       </c>
       <c r="N36" t="n">
-        <v>1987.061938397856</v>
+        <v>1711.617686936358</v>
       </c>
       <c r="O36" t="n">
-        <v>2446.97110786629</v>
+        <v>2171.526856404793</v>
       </c>
       <c r="P36" t="n">
-        <v>2446.97110786629</v>
+        <v>2527.965393024793</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.387551240124</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.17834748951317</v>
+        <v>87.17834748951344</v>
       </c>
       <c r="C37" t="n">
-        <v>71.81784050109481</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="D37" t="n">
-        <v>71.81784050109481</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="E37" t="n">
-        <v>71.81784050109481</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="F37" t="n">
-        <v>71.81784050109481</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="G37" t="n">
-        <v>57.39698234714576</v>
+        <v>57.39698234714584</v>
       </c>
       <c r="H37" t="n">
         <v>54.44409525702108</v>
@@ -7120,25 +7120,25 @@
         <v>786.1805563448602</v>
       </c>
       <c r="S37" t="n">
-        <v>730.9685411943614</v>
+        <v>710.4406208211439</v>
       </c>
       <c r="T37" t="n">
-        <v>653.0851517081308</v>
+        <v>632.5572313349131</v>
       </c>
       <c r="U37" t="n">
-        <v>499.6357322609118</v>
+        <v>499.6357322609124</v>
       </c>
       <c r="V37" t="n">
-        <v>393.1558903692357</v>
+        <v>393.1558903692363</v>
       </c>
       <c r="W37" t="n">
-        <v>261.2549514365361</v>
+        <v>261.2549514365367</v>
       </c>
       <c r="X37" t="n">
-        <v>184.2579498818132</v>
+        <v>184.2579498818137</v>
       </c>
       <c r="Y37" t="n">
-        <v>116.4782536239917</v>
+        <v>116.478253623992</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1435.430804289739</v>
+        <v>1435.43080428974</v>
       </c>
       <c r="C38" t="n">
         <v>1207.752508172448</v>
       </c>
       <c r="D38" t="n">
-        <v>989.1840059495723</v>
+        <v>989.1840059495732</v>
       </c>
       <c r="E38" t="n">
-        <v>748.6537486055805</v>
+        <v>748.6537486055813</v>
       </c>
       <c r="F38" t="n">
-        <v>488.7580204656522</v>
+        <v>488.7580204656529</v>
       </c>
       <c r="G38" t="n">
         <v>227.452177278377</v>
@@ -7172,13 +7172,13 @@
         <v>54.44409525702108</v>
       </c>
       <c r="J38" t="n">
-        <v>171.5854136416051</v>
+        <v>171.585413641605</v>
       </c>
       <c r="K38" t="n">
-        <v>479.3831020229595</v>
+        <v>479.3831020229596</v>
       </c>
       <c r="L38" t="n">
-        <v>911.2033586925768</v>
+        <v>911.2033586925766</v>
       </c>
       <c r="M38" t="n">
         <v>1397.83625545427</v>
@@ -7190,7 +7190,7 @@
         <v>2265.693179758292</v>
       </c>
       <c r="P38" t="n">
-        <v>2570.335295092282</v>
+        <v>2570.335295092283</v>
       </c>
       <c r="Q38" t="n">
         <v>2722.204762851054</v>
@@ -7202,22 +7202,22 @@
         <v>2701.59758895808</v>
       </c>
       <c r="T38" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478793</v>
       </c>
       <c r="U38" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207379</v>
       </c>
       <c r="V38" t="n">
-        <v>2350.559419653221</v>
+        <v>2350.559419653222</v>
       </c>
       <c r="W38" t="n">
-        <v>2142.279952060723</v>
+        <v>2142.279952060724</v>
       </c>
       <c r="X38" t="n">
         <v>1914.505274132118</v>
       </c>
       <c r="Y38" t="n">
-        <v>1675.218881257857</v>
+        <v>1675.218881257858</v>
       </c>
     </row>
     <row r="39">
@@ -7236,10 +7236,10 @@
         <v>620.1228834449387</v>
       </c>
       <c r="E39" t="n">
-        <v>473.0948735018098</v>
+        <v>473.09487350181</v>
       </c>
       <c r="F39" t="n">
-        <v>338.4010754516842</v>
+        <v>338.4010754516843</v>
       </c>
       <c r="G39" t="n">
         <v>209.9629353057399</v>
@@ -7254,16 +7254,16 @@
         <v>141.5849687921395</v>
       </c>
       <c r="K39" t="n">
-        <v>417.0292202536368</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="L39" t="n">
-        <v>844.6414846352384</v>
+        <v>569.1972331737411</v>
       </c>
       <c r="M39" t="n">
-        <v>1401.78134289948</v>
+        <v>1126.337091437983</v>
       </c>
       <c r="N39" t="n">
-        <v>1524.941614805928</v>
+        <v>1711.617686936358</v>
       </c>
       <c r="O39" t="n">
         <v>1984.850784274362</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.55269603976282</v>
+        <v>87.17834748951344</v>
       </c>
       <c r="C40" t="n">
-        <v>71.81784050109491</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="D40" t="n">
-        <v>71.81784050109491</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="E40" t="n">
-        <v>71.81784050109491</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="F40" t="n">
-        <v>71.81784050109491</v>
+        <v>71.81784050109498</v>
       </c>
       <c r="G40" t="n">
-        <v>57.39698234714581</v>
+        <v>57.39698234714584</v>
       </c>
       <c r="H40" t="n">
         <v>54.44409525702108</v>
@@ -7351,31 +7351,31 @@
         <v>786.1805563448602</v>
       </c>
       <c r="Q40" t="n">
-        <v>768.0269845218919</v>
+        <v>786.1805563448602</v>
       </c>
       <c r="R40" t="n">
-        <v>768.0269845218919</v>
+        <v>786.1805563448602</v>
       </c>
       <c r="S40" t="n">
-        <v>712.814969371393</v>
+        <v>730.9685411943613</v>
       </c>
       <c r="T40" t="n">
-        <v>634.9315798851624</v>
+        <v>653.0851517081305</v>
       </c>
       <c r="U40" t="n">
-        <v>502.0100808111617</v>
+        <v>520.1636526341298</v>
       </c>
       <c r="V40" t="n">
-        <v>395.5302389194856</v>
+        <v>413.6838107424537</v>
       </c>
       <c r="W40" t="n">
-        <v>263.629299986786</v>
+        <v>281.7828718097541</v>
       </c>
       <c r="X40" t="n">
-        <v>186.632298432063</v>
+        <v>204.7858702550311</v>
       </c>
       <c r="Y40" t="n">
-        <v>118.8526021742414</v>
+        <v>137.0061739972094</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1435.43080428974</v>
+        <v>1435.430804289739</v>
       </c>
       <c r="C41" t="n">
-        <v>1207.752508172449</v>
+        <v>1207.752508172448</v>
       </c>
       <c r="D41" t="n">
-        <v>989.1840059495736</v>
+        <v>989.1840059495726</v>
       </c>
       <c r="E41" t="n">
-        <v>748.6537486055818</v>
+        <v>748.6537486055811</v>
       </c>
       <c r="F41" t="n">
-        <v>488.7580204656534</v>
+        <v>488.7580204656529</v>
       </c>
       <c r="G41" t="n">
         <v>227.452177278377</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="J41" t="n">
         <v>171.585413641605</v>
@@ -7415,7 +7415,7 @@
         <v>479.3831020229596</v>
       </c>
       <c r="L41" t="n">
-        <v>911.2033586925766</v>
+        <v>911.2033586925768</v>
       </c>
       <c r="M41" t="n">
         <v>1397.83625545427</v>
@@ -7427,34 +7427,34 @@
         <v>2265.693179758292</v>
       </c>
       <c r="P41" t="n">
-        <v>2570.335295092284</v>
+        <v>2570.335295092283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.204762851055</v>
+        <v>2722.204762851054</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.204762851055</v>
+        <v>2722.204762851054</v>
       </c>
       <c r="S41" t="n">
-        <v>2701.597588958082</v>
+        <v>2701.59758895808</v>
       </c>
       <c r="T41" t="n">
-        <v>2633.869690478794</v>
+        <v>2633.869690478793</v>
       </c>
       <c r="U41" t="n">
         <v>2533.283231207379</v>
       </c>
       <c r="V41" t="n">
-        <v>2350.559419653222</v>
+        <v>2350.559419653221</v>
       </c>
       <c r="W41" t="n">
-        <v>2142.279952060724</v>
+        <v>2142.279952060723</v>
       </c>
       <c r="X41" t="n">
-        <v>1914.505274132119</v>
+        <v>1914.505274132118</v>
       </c>
       <c r="Y41" t="n">
-        <v>1675.218881257858</v>
+        <v>1675.218881257857</v>
       </c>
     </row>
     <row r="42">
@@ -7479,34 +7479,34 @@
         <v>338.4010754516843</v>
       </c>
       <c r="G42" t="n">
-        <v>209.96293530574</v>
+        <v>209.9629353057399</v>
       </c>
       <c r="H42" t="n">
         <v>112.8293425338325</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="J42" t="n">
-        <v>141.5849687921396</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="K42" t="n">
-        <v>417.0292202536368</v>
+        <v>329.8883467185183</v>
       </c>
       <c r="L42" t="n">
-        <v>844.6414846352384</v>
+        <v>576.6193913890722</v>
       </c>
       <c r="M42" t="n">
-        <v>1401.78134289948</v>
+        <v>1133.759249653314</v>
       </c>
       <c r="N42" t="n">
-        <v>1987.061938397856</v>
+        <v>1719.039845151689</v>
       </c>
       <c r="O42" t="n">
-        <v>2446.97110786629</v>
+        <v>2178.949014620124</v>
       </c>
       <c r="P42" t="n">
-        <v>2446.97110786629</v>
+        <v>2535.387551240124</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.387551240124</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.7062678627311</v>
+        <v>87.17834748951334</v>
       </c>
       <c r="C43" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="D43" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="E43" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="F43" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="G43" t="n">
-        <v>77.92490272036352</v>
+        <v>57.39698234714582</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="J43" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="K43" t="n">
         <v>115.7673725115553</v>
@@ -7576,7 +7576,7 @@
         <v>251.845343135974</v>
       </c>
       <c r="M43" t="n">
-        <v>407.2379306735169</v>
+        <v>407.2379306735168</v>
       </c>
       <c r="N43" t="n">
         <v>562.170087268187</v>
@@ -7597,22 +7597,22 @@
         <v>730.9685411943613</v>
       </c>
       <c r="T43" t="n">
-        <v>653.0851517081306</v>
+        <v>632.5572313349129</v>
       </c>
       <c r="U43" t="n">
-        <v>520.1636526341299</v>
+        <v>499.6357322609122</v>
       </c>
       <c r="V43" t="n">
-        <v>413.6838107424538</v>
+        <v>393.1558903692361</v>
       </c>
       <c r="W43" t="n">
-        <v>281.7828718097542</v>
+        <v>261.2549514365365</v>
       </c>
       <c r="X43" t="n">
-        <v>204.7858702550312</v>
+        <v>184.2579498818135</v>
       </c>
       <c r="Y43" t="n">
-        <v>137.0061739972096</v>
+        <v>116.4782536239919</v>
       </c>
     </row>
     <row r="44">
@@ -7631,22 +7631,22 @@
         <v>989.1840059495726</v>
       </c>
       <c r="E44" t="n">
-        <v>748.6537486055806</v>
+        <v>748.6537486055811</v>
       </c>
       <c r="F44" t="n">
-        <v>488.7580204656526</v>
+        <v>488.7580204656529</v>
       </c>
       <c r="G44" t="n">
         <v>227.452177278377</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="J44" t="n">
-        <v>171.5854136416051</v>
+        <v>171.585413641605</v>
       </c>
       <c r="K44" t="n">
         <v>479.3831020229596</v>
@@ -7658,28 +7658,28 @@
         <v>1397.83625545427</v>
       </c>
       <c r="N44" t="n">
-        <v>1871.072552850362</v>
+        <v>1871.07255285036</v>
       </c>
       <c r="O44" t="n">
-        <v>2265.693179758293</v>
+        <v>2265.693179758292</v>
       </c>
       <c r="P44" t="n">
-        <v>2570.335295092284</v>
+        <v>2570.335295092283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.204762851055</v>
+        <v>2722.204762851054</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.204762851055</v>
+        <v>2722.204762851054</v>
       </c>
       <c r="S44" t="n">
         <v>2701.59758895808</v>
       </c>
       <c r="T44" t="n">
-        <v>2633.869690478792</v>
+        <v>2633.869690478793</v>
       </c>
       <c r="U44" t="n">
-        <v>2533.283231207378</v>
+        <v>2533.283231207379</v>
       </c>
       <c r="V44" t="n">
         <v>2350.559419653221</v>
@@ -7716,22 +7716,22 @@
         <v>338.4010754516843</v>
       </c>
       <c r="G45" t="n">
-        <v>209.96293530574</v>
+        <v>209.9629353057399</v>
       </c>
       <c r="H45" t="n">
         <v>112.8293425338325</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="J45" t="n">
-        <v>141.5849687921396</v>
+        <v>141.5849687921395</v>
       </c>
       <c r="K45" t="n">
-        <v>417.0292202536368</v>
+        <v>382.5211610433104</v>
       </c>
       <c r="L45" t="n">
-        <v>844.6414846352384</v>
+        <v>382.5211610433104</v>
       </c>
       <c r="M45" t="n">
         <v>939.6610193075525</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.7062678627311</v>
+        <v>87.17834748951334</v>
       </c>
       <c r="C46" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="D46" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="E46" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="F46" t="n">
-        <v>92.34576087431263</v>
+        <v>71.81784050109492</v>
       </c>
       <c r="G46" t="n">
-        <v>77.92490272036352</v>
+        <v>57.39698234714582</v>
       </c>
       <c r="H46" t="n">
-        <v>74.97201563023879</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="J46" t="n">
-        <v>54.44409525702111</v>
+        <v>54.44409525702108</v>
       </c>
       <c r="K46" t="n">
         <v>115.7673725115553</v>
@@ -7813,7 +7813,7 @@
         <v>251.845343135974</v>
       </c>
       <c r="M46" t="n">
-        <v>407.2379306735169</v>
+        <v>407.2379306735168</v>
       </c>
       <c r="N46" t="n">
         <v>562.170087268187</v>
@@ -7846,10 +7846,10 @@
         <v>281.7828718097542</v>
       </c>
       <c r="X46" t="n">
-        <v>204.7858702550312</v>
+        <v>184.2579498818135</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.0061739972096</v>
+        <v>116.4782536239919</v>
       </c>
     </row>
   </sheetData>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
         <v>191.5602121631146</v>
@@ -8465,10 +8465,10 @@
         <v>196.0033614891845</v>
       </c>
       <c r="O8" t="n">
-        <v>196.9644755630518</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
         <v>190.6330518059216</v>
@@ -8529,22 +8529,22 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>113.0652504495981</v>
       </c>
       <c r="K9" t="n">
-        <v>121.601416483621</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
-        <v>125.4935813445713</v>
+        <v>125.0891498785942</v>
       </c>
       <c r="N9" t="n">
-        <v>116.7248198506397</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>114.8329510464913</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>119.6034782614375</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
-        <v>122.1011848090766</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8696,7 +8696,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M11" t="n">
-        <v>395.6633393882291</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
         <v>568.5510017355793</v>
@@ -8705,7 +8705,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>229.6340664704739</v>
       </c>
       <c r="Q11" t="n">
         <v>276.0094878578761</v>
@@ -8769,19 +8769,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857728</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>603.183093861372</v>
+        <v>416.8548938543638</v>
       </c>
       <c r="N12" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>47.46629842496566</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.5010356988637</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
@@ -8939,10 +8939,10 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O14" t="n">
-        <v>495.0402356415689</v>
+        <v>306.3359814891159</v>
       </c>
       <c r="P14" t="n">
-        <v>347.9586304953065</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
         <v>276.0094878578761</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>75.89726156362396</v>
+        <v>75.89726156362397</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>422.7082801365693</v>
+        <v>586.6883874842844</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9021,10 +9021,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P15" t="n">
-        <v>414.0015992319183</v>
+        <v>53.96267335313112</v>
       </c>
       <c r="Q15" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>75.89726156362396</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,19 +9249,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>422.7082801365693</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>620.9115976329899</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>47.46629842496564</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9401,7 +9401,7 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>232.6847821900609</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9413,7 +9413,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O20" t="n">
-        <v>306.3359814891156</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P20" t="n">
         <v>418.3383206229274</v>
@@ -9477,16 +9477,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>75.89726156362396</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>161.0965053779202</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106094</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>570.5599574100238</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.5010356988637</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9644,7 +9644,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M23" t="n">
-        <v>584.3675935406823</v>
+        <v>395.6633393882294</v>
       </c>
       <c r="N23" t="n">
         <v>568.5510017355793</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.6297977302558</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9726,13 +9726,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>516.3958068769947</v>
+        <v>156.3568809982073</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>53.96267335313108</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>75.89726156362396</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>161.0965053779201</v>
+        <v>65.57829148857724</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>623.1450866466196</v>
+        <v>434.5833976259821</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,16 +10188,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>75.89726156362396</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>161.0965053779201</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>138.6283772265877</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10209,7 +10209,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>77.04165552553147</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,10 +10425,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362396</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857724</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
@@ -10437,10 +10437,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>156.3568809982076</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
-        <v>512.0210150597484</v>
+        <v>411.4804104180189</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10665,7 +10665,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857724</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10680,10 +10680,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>53.96267335313108</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.3511942869793</v>
+        <v>84.53878503596673</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578763</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>65.57829148857724</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,10 +10911,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>156.3568809982073</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
-        <v>512.0210150597484</v>
+        <v>323.4593260391111</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
@@ -11075,7 +11075,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229287</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
         <v>276.0094878578761</v>
@@ -11136,13 +11136,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>163.9183459425315</v>
+        <v>75.89726156362396</v>
       </c>
       <c r="K42" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>299.3841461560648</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11154,10 +11154,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>53.96267335313108</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.3511942869793</v>
+        <v>77.04165552553147</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406825</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11376,13 +11376,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>308.9481826513761</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>50.16086871106094</v>
       </c>
       <c r="M45" t="n">
-        <v>138.6283772265878</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.5465712312742</v>
       </c>
       <c r="C11" t="n">
-        <v>289.557888188956</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>280.539192233484</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.2813298033894</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>321.4531458913666</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>219.6772520840889</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>3.458266659913578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>301.0499039783556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>61.93239120472957</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>30.10330145808427</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>78.4330246052471</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>67.07973325206098</v>
       </c>
       <c r="I13" t="n">
-        <v>46.95714478044759</v>
+        <v>46.95714478044753</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.63407987987206</v>
+        <v>48.634079879872</v>
       </c>
       <c r="S13" t="n">
-        <v>118.8162700318314</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>118.7321804882922</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>280.539192233484</v>
+        <v>265.2216170965331</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>321.4531458913667</v>
       </c>
       <c r="G14" t="n">
-        <v>51.75872506621771</v>
+        <v>322.8491597882406</v>
       </c>
       <c r="H14" t="n">
         <v>235.4343762339799</v>
       </c>
       <c r="I14" t="n">
-        <v>61.82000905557406</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>245.0529484714534</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>270.3530479494103</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>61.93239120472963</v>
+        <v>61.93239120472968</v>
       </c>
       <c r="F16" t="n">
-        <v>62.39931553291594</v>
+        <v>62.39931553291599</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>78.43302460524721</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>67.0797332520611</v>
       </c>
       <c r="I16" t="n">
-        <v>46.95714478044759</v>
+        <v>46.95714478044765</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.59254933426857</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>131.258274328081</v>
+        <v>16.3380658050425</v>
       </c>
     </row>
     <row r="17">
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.602807272633072e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>-2.07928374072202e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>970233.9558099115</v>
+        <v>970233.9558099118</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>970233.9558099114</v>
+        <v>970233.9558099115</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>402921.8404940122</v>
       </c>
       <c r="E2" t="n">
-        <v>350957.2645365403</v>
+        <v>350957.2645365401</v>
       </c>
       <c r="F2" t="n">
-        <v>350957.26453654</v>
+        <v>350957.2645365385</v>
       </c>
       <c r="G2" t="n">
+        <v>403002.6317594453</v>
+      </c>
+      <c r="H2" t="n">
         <v>403002.6317594455</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>403002.6317594454</v>
-      </c>
-      <c r="I2" t="n">
-        <v>403002.6317594453</v>
       </c>
       <c r="J2" t="n">
         <v>403002.631759446</v>
       </c>
       <c r="K2" t="n">
-        <v>403002.631759446</v>
+        <v>403002.6317594459</v>
       </c>
       <c r="L2" t="n">
+        <v>403002.6317594454</v>
+      </c>
+      <c r="M2" t="n">
         <v>403002.6317594452</v>
       </c>
-      <c r="M2" t="n">
-        <v>403002.6317594453</v>
-      </c>
       <c r="N2" t="n">
-        <v>403002.6317594453</v>
+        <v>403002.6317594452</v>
       </c>
       <c r="O2" t="n">
-        <v>403002.6317594453</v>
+        <v>403002.6317594455</v>
       </c>
       <c r="P2" t="n">
-        <v>403002.6317594454</v>
+        <v>403002.6317594452</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61893.61656883114</v>
+        <v>61893.61656883122</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>83192.20727529823</v>
+        <v>83192.20727529812</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63965.37984460718</v>
+        <v>63965.37984460715</v>
       </c>
       <c r="M3" t="n">
         <v>147607.1236882954</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20130.41834750259</v>
+        <v>20130.41834750241</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>396776.6118112199</v>
       </c>
       <c r="E4" t="n">
-        <v>243850.6379113333</v>
+        <v>243850.6379113334</v>
       </c>
       <c r="F4" t="n">
-        <v>243850.6379113334</v>
+        <v>243850.6379113332</v>
       </c>
       <c r="G4" t="n">
         <v>300233.0890957766</v>
@@ -26439,22 +26439,22 @@
         <v>300233.0890957767</v>
       </c>
       <c r="J4" t="n">
-        <v>298128.2578581518</v>
+        <v>298128.2578581517</v>
       </c>
       <c r="K4" t="n">
         <v>298128.2578581518</v>
       </c>
       <c r="L4" t="n">
-        <v>298074.6449804871</v>
+        <v>298074.644980487</v>
       </c>
       <c r="M4" t="n">
-        <v>297110.1202412423</v>
+        <v>297110.1202412422</v>
       </c>
       <c r="N4" t="n">
         <v>297110.1202412422</v>
       </c>
       <c r="O4" t="n">
-        <v>297110.1202412422</v>
+        <v>297110.1202412423</v>
       </c>
       <c r="P4" t="n">
         <v>297110.1202412422</v>
@@ -26491,13 +26491,13 @@
         <v>55342.36067658163</v>
       </c>
       <c r="J5" t="n">
-        <v>64667.02949573724</v>
+        <v>64667.02949573722</v>
       </c>
       <c r="K5" t="n">
         <v>64667.02949573723</v>
       </c>
       <c r="L5" t="n">
-        <v>64276.15485927403</v>
+        <v>64276.15485927401</v>
       </c>
       <c r="M5" t="n">
         <v>57129.32798310797</v>
@@ -26506,10 +26506,10 @@
         <v>57129.32798310797</v>
       </c>
       <c r="O5" t="n">
-        <v>57129.32798310799</v>
+        <v>57129.32798310797</v>
       </c>
       <c r="P5" t="n">
-        <v>57129.32798310799</v>
+        <v>57129.32798310797</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28612.52586238141</v>
+        <v>-28616.8944348486</v>
       </c>
       <c r="C6" t="n">
-        <v>-28612.52586238141</v>
+        <v>-28616.8944348486</v>
       </c>
       <c r="D6" t="n">
-        <v>-31200.2663075519</v>
+        <v>-31200.65102786349</v>
       </c>
       <c r="E6" t="n">
-        <v>-305924.5987695975</v>
+        <v>-306172.4338516116</v>
       </c>
       <c r="F6" t="n">
-        <v>58268.43401278132</v>
+        <v>58020.59893076626</v>
       </c>
       <c r="G6" t="n">
-        <v>-14466.43458174391</v>
+        <v>-14466.43458174414</v>
       </c>
       <c r="H6" t="n">
-        <v>47427.18198708706</v>
+        <v>47427.18198708718</v>
       </c>
       <c r="I6" t="n">
-        <v>47427.181987087</v>
+        <v>47427.18198708712</v>
       </c>
       <c r="J6" t="n">
-        <v>-42984.86286974129</v>
+        <v>-42984.86286974105</v>
       </c>
       <c r="K6" t="n">
-        <v>40207.34440555696</v>
+        <v>40207.34440555685</v>
       </c>
       <c r="L6" t="n">
-        <v>-23313.54792492311</v>
+        <v>-23313.54792492281</v>
       </c>
       <c r="M6" t="n">
-        <v>-98843.94015320038</v>
+        <v>-98843.94015320044</v>
       </c>
       <c r="N6" t="n">
-        <v>48763.18353509516</v>
+        <v>48763.18353509504</v>
       </c>
       <c r="O6" t="n">
-        <v>28632.76518759249</v>
+        <v>28632.7651875928</v>
       </c>
       <c r="P6" t="n">
-        <v>48763.1835350952</v>
+        <v>48763.18353509498</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26692,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="F2" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="G2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I2" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="J2" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="K2" t="n">
         <v>102.530043645417</v>
       </c>
       <c r="L2" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="M2" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="N2" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="O2" t="n">
         <v>152.7129079244023</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="F3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="G3" t="n">
         <v>133.6419326364853</v>
@@ -26796,7 +26796,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>632.8937387712</v>
+        <v>632.8937387711999</v>
       </c>
       <c r="F4" t="n">
         <v>632.8937387712</v>
@@ -26811,7 +26811,7 @@
         <v>632.8937387712001</v>
       </c>
       <c r="J4" t="n">
-        <v>873.9150842933437</v>
+        <v>873.9150842933436</v>
       </c>
       <c r="K4" t="n">
         <v>873.9150842933436</v>
@@ -26823,13 +26823,13 @@
         <v>680.5511907127635</v>
       </c>
       <c r="N4" t="n">
-        <v>680.5511907127634</v>
+        <v>680.5511907127635</v>
       </c>
       <c r="O4" t="n">
-        <v>680.5511907127639</v>
+        <v>680.5511907127635</v>
       </c>
       <c r="P4" t="n">
-        <v>680.5511907127639</v>
+        <v>680.5511907127635</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>77.36702071103893</v>
+        <v>77.36702071103902</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.16302293437811</v>
+        <v>25.16302293437799</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.95672480575898</v>
+        <v>79.95672480575894</v>
       </c>
       <c r="M2" t="n">
-        <v>47.59316018426524</v>
+        <v>47.59316018426529</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437811</v>
+        <v>25.16302293437802</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133.6419326364853</v>
+        <v>133.6419326364852</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="E4" t="n">
-        <v>622.8840599882686</v>
+        <v>622.8840599882685</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0213455221436</v>
+        <v>241.0213455221435</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>439.5298451906199</v>
+        <v>439.5298451906198</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>77.36702071103893</v>
+        <v>77.36702071103902</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.16302293437811</v>
+        <v>25.16302293437799</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="M4" t="n">
-        <v>622.8840599882686</v>
+        <v>622.8840599882685</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>369.2978960085147</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>162.272501731286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>175.3470068330182</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
@@ -27916,7 +27916,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>368.2001602907902</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>149.0087232814423</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>127.4405718567587</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -27980,7 +27980,7 @@
         <v>49.17674743307231</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -27989,13 +27989,13 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>216.101987543218</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
-        <v>195.9378182409833</v>
+        <v>185.928139458052</v>
       </c>
       <c r="Y9" t="n">
         <v>190.5961130869169</v>
@@ -28011,7 +28011,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>159.1032847709306</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
         <v>138.0168847888342</v>
@@ -28062,10 +28062,10 @@
         <v>201.5629861874179</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8374848695466</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>275.5018120437852</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="C11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="D11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="E11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="F11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="G11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="H11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="I11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>55.98362202713887</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="T11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="U11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="V11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="W11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="X11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="Y11" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
     </row>
     <row r="12">
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.172395514004165e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="C13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="D13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="E13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="F13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="G13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="H13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="I13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="J13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="K13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="L13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="M13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="N13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="O13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="P13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="R13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="S13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="T13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="U13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="V13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="W13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="X13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
       <c r="Y13" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156477</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="C14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="D14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="E14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="F14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="G14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="H14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="I14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.98362202713887</v>
+        <v>55.98362202713889</v>
       </c>
       <c r="S14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="T14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="U14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="V14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="W14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="X14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="C16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="D16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="E16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="F16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="G16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="H16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="I16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="J16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="K16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="L16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="M16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="N16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="O16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="P16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="R16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="S16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="T16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="U16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="V16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="W16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="X16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.55653289156471</v>
+        <v>88.55653289156466</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I17" t="n">
         <v>150.3765419471388</v>
@@ -28612,25 +28612,25 @@
         <v>55.98362202713886</v>
       </c>
       <c r="S17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="18">
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-1.172395514004165e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H19" t="n">
         <v>155.6362661436258</v>
@@ -28743,7 +28743,7 @@
         <v>135.5136776720123</v>
       </c>
       <c r="J19" t="n">
-        <v>24.25657181520848</v>
+        <v>42.41841521449447</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>17.97203610473857</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>137.1906127714368</v>
       </c>
       <c r="S19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T19" t="n">
-        <v>165.9235536026036</v>
+        <v>28.54313353661911</v>
       </c>
       <c r="U19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I20" t="n">
         <v>150.3765419471388</v>
@@ -28849,25 +28849,25 @@
         <v>55.98362202713886</v>
       </c>
       <c r="S20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,13 +28971,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H22" t="n">
         <v>155.6362661436258</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>135.5136776720123</v>
       </c>
       <c r="J22" t="n">
         <v>42.41841521449447</v>
@@ -29007,25 +29007,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y22" t="n">
-        <v>146.0847751038931</v>
+        <v>10.57109743188059</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="E23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="G23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="I23" t="n">
         <v>150.3765419471388</v>
@@ -29086,25 +29086,25 @@
         <v>55.98362202713886</v>
       </c>
       <c r="S23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="T23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="24">
@@ -29193,13 +29193,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="C25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="H25" t="n">
         <v>155.6362661436258</v>
@@ -29244,25 +29244,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9235536026036</v>
+        <v>10.57109743188042</v>
       </c>
       <c r="T25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="U25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="V25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="W25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9235536026036</v>
+        <v>165.9235536026037</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.1122716723957</v>
+        <v>165.9235536026037</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="C26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="D26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="E26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="F26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="G26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="H26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="I26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="J26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="K26" t="n">
-        <v>102.530043645417</v>
+        <v>1.386164617211818</v>
       </c>
       <c r="L26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="M26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="N26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="O26" t="n">
-        <v>1.386164617211136</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="P26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="Q26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="R26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="S26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="T26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="U26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="V26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="W26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="X26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="Y26" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="C28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="D28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="E28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="F28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="G28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="H28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="I28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="J28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="K28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="L28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="M28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="N28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="O28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="P28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="Q28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454203</v>
       </c>
       <c r="R28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="S28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="T28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="U28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="V28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="W28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="X28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
       <c r="Y28" t="n">
-        <v>102.530043645417</v>
+        <v>102.5300436454169</v>
       </c>
     </row>
     <row r="29">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="C32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="D32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="E32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="F32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="G32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="H32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="I32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="J32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="K32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="L32" t="n">
-        <v>105.1197477401371</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="N32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="O32" t="n">
-        <v>46.1539959338391</v>
+        <v>46.15399593384046</v>
       </c>
       <c r="P32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="R32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="S32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="T32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="U32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="V32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="W32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="X32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="C34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="D34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="E34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="F34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="G34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="H34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="I34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="J34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="K34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="L34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="M34" t="n">
-        <v>42.12554573891137</v>
+        <v>42.12554573891401</v>
       </c>
       <c r="N34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="O34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="P34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="R34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="S34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="T34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="U34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="V34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="W34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="X34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.1197477401371</v>
+        <v>105.1197477401369</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="C35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="D35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="E35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="F35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="G35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="H35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="I35" t="n">
         <v>150.3765419471388</v>
@@ -30034,25 +30034,25 @@
         <v>55.98362202713886</v>
       </c>
       <c r="S35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="T35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="U35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="V35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="W35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="X35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="Y35" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
     </row>
     <row r="36">
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="C37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -30156,10 +30156,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="H37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="I37" t="n">
         <v>135.5136776720123</v>
@@ -30192,25 +30192,25 @@
         <v>137.1906127714368</v>
       </c>
       <c r="S37" t="n">
-        <v>152.7129079244023</v>
+        <v>132.390266754917</v>
       </c>
       <c r="T37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="U37" t="n">
-        <v>132.3902667549161</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="V37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="W37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="X37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="Y37" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="C38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="D38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="E38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="F38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="G38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="H38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="I38" t="n">
         <v>150.3765419471388</v>
@@ -30271,25 +30271,25 @@
         <v>55.98362202713886</v>
       </c>
       <c r="S38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="T38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="U38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="V38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="W38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="X38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="Y38" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>152.7129079244023</v>
+        <v>132.390266754917</v>
       </c>
       <c r="C40" t="n">
-        <v>150.3623028596553</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="H40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="I40" t="n">
         <v>135.5136776720123</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>17.97203610473857</v>
       </c>
       <c r="R40" t="n">
         <v>137.1906127714368</v>
       </c>
       <c r="S40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="T40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="U40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="V40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="W40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="X40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
       <c r="Y40" t="n">
-        <v>152.7129079244023</v>
+        <v>152.7129079244022</v>
       </c>
     </row>
     <row r="41">
@@ -30633,7 +30633,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="H43" t="n">
-        <v>132.3902667549168</v>
+        <v>152.7129079244023</v>
       </c>
       <c r="I43" t="n">
         <v>135.5136776720123</v>
@@ -30669,7 +30669,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="T43" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549168</v>
       </c>
       <c r="U43" t="n">
         <v>152.7129079244023</v>
@@ -30873,7 +30873,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1910365025268</v>
+        <v>135.5136776720123</v>
       </c>
       <c r="J46" t="n">
         <v>42.41841521449447</v>
@@ -30918,7 +30918,7 @@
         <v>152.7129079244023</v>
       </c>
       <c r="X46" t="n">
-        <v>152.7129079244023</v>
+        <v>132.3902667549168</v>
       </c>
       <c r="Y46" t="n">
         <v>152.7129079244023</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5372540005486841</v>
+        <v>0.5372540005486838</v>
       </c>
       <c r="H11" t="n">
-        <v>5.502152533119212</v>
+        <v>5.502152533119209</v>
       </c>
       <c r="I11" t="n">
-        <v>20.71248485615316</v>
+        <v>20.71248485615315</v>
       </c>
       <c r="J11" t="n">
-        <v>45.59876172906892</v>
+        <v>45.59876172906889</v>
       </c>
       <c r="K11" t="n">
-        <v>68.34072357229473</v>
+        <v>68.34072357229469</v>
       </c>
       <c r="L11" t="n">
-        <v>84.78271069158654</v>
+        <v>84.78271069158649</v>
       </c>
       <c r="M11" t="n">
-        <v>94.3371015238442</v>
+        <v>94.33710152384414</v>
       </c>
       <c r="N11" t="n">
-        <v>95.86357445290317</v>
+        <v>95.86357445290309</v>
       </c>
       <c r="O11" t="n">
-        <v>90.52125498494718</v>
+        <v>90.52125498494712</v>
       </c>
       <c r="P11" t="n">
-        <v>77.25779684640152</v>
+        <v>77.25779684640148</v>
       </c>
       <c r="Q11" t="n">
-        <v>58.01738795175175</v>
+        <v>58.01738795175172</v>
       </c>
       <c r="R11" t="n">
-        <v>33.74828161196631</v>
+        <v>33.74828161196629</v>
       </c>
       <c r="S11" t="n">
-        <v>12.24267553750315</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T11" t="n">
-        <v>2.351829387401866</v>
+        <v>2.351829387401864</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04298032004389472</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2874562324633834</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H12" t="n">
-        <v>2.776222034580572</v>
+        <v>2.77622203458057</v>
       </c>
       <c r="I12" t="n">
-        <v>9.897067652796316</v>
+        <v>9.897067652796311</v>
       </c>
       <c r="J12" t="n">
-        <v>27.15831010304273</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K12" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L12" t="n">
-        <v>62.41456486008683</v>
+        <v>62.4145648600868</v>
       </c>
       <c r="M12" t="n">
-        <v>72.83485328688447</v>
+        <v>72.83485328688442</v>
       </c>
       <c r="N12" t="n">
-        <v>74.76257512651831</v>
+        <v>74.76257512651826</v>
       </c>
       <c r="O12" t="n">
-        <v>68.39315018614545</v>
+        <v>68.39315018614541</v>
       </c>
       <c r="P12" t="n">
-        <v>54.89153267101224</v>
+        <v>54.8915326710122</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.69353591936102</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R12" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S12" t="n">
-        <v>5.339373440712404</v>
+        <v>5.3393734407124</v>
       </c>
       <c r="T12" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101206</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166126</v>
       </c>
       <c r="H13" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893157</v>
       </c>
       <c r="I13" t="n">
-        <v>7.247336281335957</v>
+        <v>7.247336281335953</v>
       </c>
       <c r="J13" t="n">
-        <v>17.03825098547452</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K13" t="n">
-        <v>27.999080313021</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L13" t="n">
-        <v>35.82918305470623</v>
+        <v>35.82918305470621</v>
       </c>
       <c r="M13" t="n">
-        <v>37.7768499090314</v>
+        <v>37.77684990903137</v>
       </c>
       <c r="N13" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O13" t="n">
-        <v>34.06335686282088</v>
+        <v>34.06335686282086</v>
       </c>
       <c r="P13" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810926</v>
       </c>
       <c r="R13" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S13" t="n">
-        <v>4.19986204695315</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T13" t="n">
         <v>1.029700136707345</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5372540005486841</v>
+        <v>0.5372540005486838</v>
       </c>
       <c r="H14" t="n">
-        <v>5.502152533119212</v>
+        <v>5.502152533119209</v>
       </c>
       <c r="I14" t="n">
-        <v>20.71248485615316</v>
+        <v>20.71248485615315</v>
       </c>
       <c r="J14" t="n">
-        <v>45.59876172906892</v>
+        <v>45.59876172906889</v>
       </c>
       <c r="K14" t="n">
-        <v>68.34072357229473</v>
+        <v>68.34072357229469</v>
       </c>
       <c r="L14" t="n">
-        <v>84.78271069158654</v>
+        <v>84.78271069158649</v>
       </c>
       <c r="M14" t="n">
-        <v>94.3371015238442</v>
+        <v>94.33710152384414</v>
       </c>
       <c r="N14" t="n">
-        <v>95.86357445290317</v>
+        <v>95.86357445290309</v>
       </c>
       <c r="O14" t="n">
-        <v>90.52125498494718</v>
+        <v>90.52125498494712</v>
       </c>
       <c r="P14" t="n">
-        <v>77.25779684640152</v>
+        <v>77.25779684640148</v>
       </c>
       <c r="Q14" t="n">
-        <v>58.01738795175175</v>
+        <v>58.01738795175172</v>
       </c>
       <c r="R14" t="n">
-        <v>33.74828161196631</v>
+        <v>33.74828161196629</v>
       </c>
       <c r="S14" t="n">
-        <v>12.24267553750315</v>
+        <v>12.24267553750314</v>
       </c>
       <c r="T14" t="n">
-        <v>2.351829387401866</v>
+        <v>2.351829387401864</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04298032004389472</v>
+        <v>0.0429803200438947</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2874562324633834</v>
+        <v>0.2874562324633833</v>
       </c>
       <c r="H15" t="n">
-        <v>2.776222034580572</v>
+        <v>2.77622203458057</v>
       </c>
       <c r="I15" t="n">
-        <v>9.897067652796316</v>
+        <v>9.897067652796311</v>
       </c>
       <c r="J15" t="n">
-        <v>27.15831010304273</v>
+        <v>27.15831010304272</v>
       </c>
       <c r="K15" t="n">
-        <v>46.41787767808943</v>
+        <v>46.4178776780894</v>
       </c>
       <c r="L15" t="n">
-        <v>62.41456486008683</v>
+        <v>62.4145648600868</v>
       </c>
       <c r="M15" t="n">
-        <v>72.83485328688447</v>
+        <v>72.83485328688442</v>
       </c>
       <c r="N15" t="n">
-        <v>74.76257512651831</v>
+        <v>74.76257512651826</v>
       </c>
       <c r="O15" t="n">
-        <v>68.39315018614545</v>
+        <v>68.39315018614541</v>
       </c>
       <c r="P15" t="n">
-        <v>54.89153267101224</v>
+        <v>54.8915326710122</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.69353591936102</v>
+        <v>36.693535919361</v>
       </c>
       <c r="R15" t="n">
-        <v>17.8475018717178</v>
+        <v>17.84750187171779</v>
       </c>
       <c r="S15" t="n">
-        <v>5.339373440712404</v>
+        <v>5.3393734407124</v>
       </c>
       <c r="T15" t="n">
-        <v>1.158650340499339</v>
+        <v>1.158650340499338</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01891159424101208</v>
+        <v>0.01891159424101206</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,43 +32145,43 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2409936490166128</v>
+        <v>0.2409936490166126</v>
       </c>
       <c r="H16" t="n">
-        <v>2.142652624893159</v>
+        <v>2.142652624893157</v>
       </c>
       <c r="I16" t="n">
-        <v>7.247336281335957</v>
+        <v>7.247336281335953</v>
       </c>
       <c r="J16" t="n">
-        <v>17.03825098547452</v>
+        <v>17.03825098547451</v>
       </c>
       <c r="K16" t="n">
-        <v>27.999080313021</v>
+        <v>27.99908031302099</v>
       </c>
       <c r="L16" t="n">
-        <v>35.82918305470623</v>
+        <v>35.82918305470621</v>
       </c>
       <c r="M16" t="n">
-        <v>37.7768499090314</v>
+        <v>37.77684990903137</v>
       </c>
       <c r="N16" t="n">
-        <v>36.87860085360587</v>
+        <v>36.87860085360585</v>
       </c>
       <c r="O16" t="n">
-        <v>34.06335686282088</v>
+        <v>34.06335686282086</v>
       </c>
       <c r="P16" t="n">
-        <v>29.14708642288196</v>
+        <v>29.14708642288194</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.17993182810928</v>
+        <v>20.17993182810926</v>
       </c>
       <c r="R16" t="n">
-        <v>10.83595080032879</v>
+        <v>10.83595080032878</v>
       </c>
       <c r="S16" t="n">
-        <v>4.19986204695315</v>
+        <v>4.199862046953148</v>
       </c>
       <c r="T16" t="n">
         <v>1.029700136707345</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9.605247316954339</v>
+        <v>9.605247316954337</v>
       </c>
       <c r="O8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>10.00967878293136</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>9.605247316954339</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
       <c r="M10" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="O10" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K11" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L11" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M11" t="n">
-        <v>302.8441264149142</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N11" t="n">
-        <v>478.0164620162524</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O11" t="n">
         <v>398.6066938463956</v>
       </c>
       <c r="P11" t="n">
-        <v>307.7193084181724</v>
+        <v>119.0150542657188</v>
       </c>
       <c r="Q11" t="n">
         <v>153.4035027866376</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88.02108437890753</v>
+        <v>88.02108437890752</v>
       </c>
       <c r="K12" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M12" t="n">
-        <v>560.5340445866166</v>
+        <v>374.2058445796084</v>
       </c>
       <c r="N12" t="n">
         <v>591.1925207054295</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>464.5547166347827</v>
       </c>
       <c r="P12" t="n">
         <v>360.0389258787872</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.13811767707024</v>
+        <v>46.13811767707028</v>
       </c>
       <c r="K13" t="n">
-        <v>150.499237189074</v>
+        <v>150.4992371890741</v>
       </c>
       <c r="L13" t="n">
-        <v>226.0090284717856</v>
+        <v>226.0090284717857</v>
       </c>
       <c r="M13" t="n">
-        <v>245.5187425254463</v>
+        <v>245.5187425254464</v>
       </c>
       <c r="N13" t="n">
-        <v>245.0536607649689</v>
+        <v>245.053660764969</v>
       </c>
       <c r="O13" t="n">
         <v>222.0781185379105</v>
@@ -35586,7 +35586,7 @@
         <v>181.3081483327677</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.58449678682614</v>
+        <v>70.58449678682618</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K14" t="n">
-        <v>310.9067559407622</v>
+        <v>310.9067559407621</v>
       </c>
       <c r="L14" t="n">
-        <v>436.1820774440575</v>
+        <v>436.1820774440574</v>
       </c>
       <c r="M14" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673673</v>
       </c>
       <c r="N14" t="n">
-        <v>478.0164620162524</v>
+        <v>478.0164620162523</v>
       </c>
       <c r="O14" t="n">
-        <v>398.6066938463956</v>
+        <v>209.9024396939425</v>
       </c>
       <c r="P14" t="n">
-        <v>237.3396182905515</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q14" t="n">
         <v>153.4035027866376</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>278.226516627775</v>
+        <v>278.2265166277749</v>
       </c>
       <c r="L15" t="n">
-        <v>431.931580183436</v>
+        <v>431.9315801834359</v>
       </c>
       <c r="M15" t="n">
-        <v>380.0592308618139</v>
+        <v>544.0393382095289</v>
       </c>
       <c r="N15" t="n">
         <v>591.1925207054295</v>
@@ -35741,10 +35741,10 @@
         <v>464.5547166347827</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0389258787872</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.13811767707024</v>
+        <v>46.13811767707017</v>
       </c>
       <c r="K16" t="n">
-        <v>150.499237189074</v>
+        <v>150.4992371890739</v>
       </c>
       <c r="L16" t="n">
-        <v>226.0090284717856</v>
+        <v>226.0090284717855</v>
       </c>
       <c r="M16" t="n">
         <v>245.5187425254463</v>
@@ -35817,13 +35817,13 @@
         <v>245.0536607649689</v>
       </c>
       <c r="O16" t="n">
-        <v>222.0781185379105</v>
+        <v>222.0781185379104</v>
       </c>
       <c r="P16" t="n">
-        <v>181.3081483327677</v>
+        <v>181.3081483327676</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.58449678682614</v>
+        <v>70.58449678682607</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>88.02108437890753</v>
       </c>
       <c r="K18" t="n">
         <v>278.226516627775</v>
@@ -35969,19 +35969,19 @@
         <v>431.931580183436</v>
       </c>
       <c r="M18" t="n">
-        <v>380.0592308618139</v>
+        <v>562.7675336002445</v>
       </c>
       <c r="N18" t="n">
-        <v>591.1925207054295</v>
+        <v>588.9590316918</v>
       </c>
       <c r="O18" t="n">
-        <v>464.5547166347827</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>360.0389258787873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>118.3245640248322</v>
       </c>
       <c r="K20" t="n">
-        <v>310.9067559407622</v>
+        <v>122.202501788309</v>
       </c>
       <c r="L20" t="n">
         <v>436.1820774440575</v>
@@ -36133,7 +36133,7 @@
         <v>478.0164620162524</v>
       </c>
       <c r="O20" t="n">
-        <v>209.9024396939423</v>
+        <v>398.6066938463956</v>
       </c>
       <c r="P20" t="n">
         <v>307.7193084181724</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>88.02108437890753</v>
       </c>
       <c r="K21" t="n">
-        <v>95.51821388934297</v>
+        <v>278.226516627775</v>
       </c>
       <c r="L21" t="n">
-        <v>431.931580183436</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>562.7675336002445</v>
+        <v>527.9109081352684</v>
       </c>
       <c r="N21" t="n">
         <v>591.1925207054295</v>
@@ -36218,7 +36218,7 @@
         <v>360.0389258787873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>118.3245640248322</v>
       </c>
       <c r="K23" t="n">
         <v>310.9067559407622</v>
@@ -36364,7 +36364,7 @@
         <v>436.1820774440575</v>
       </c>
       <c r="M23" t="n">
-        <v>491.5483805673674</v>
+        <v>302.8441264149145</v>
       </c>
       <c r="N23" t="n">
         <v>478.0164620162524</v>
@@ -36376,7 +36376,7 @@
         <v>307.7193084181724</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.02381265901737</v>
+        <v>153.4035027866376</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36446,13 +36446,13 @@
         <v>562.7675336002445</v>
       </c>
       <c r="N24" t="n">
-        <v>484.4432409358047</v>
+        <v>124.4043150570174</v>
       </c>
       <c r="O24" t="n">
         <v>464.5547166347827</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>360.0389258787873</v>
       </c>
       <c r="Q24" t="n">
         <v>196.0588185310723</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>220.8546076702493</v>
+        <v>220.8546076702491</v>
       </c>
       <c r="K26" t="n">
-        <v>413.4367995861792</v>
+        <v>312.292920557974</v>
       </c>
       <c r="L26" t="n">
-        <v>538.7121210894745</v>
+        <v>538.7121210894744</v>
       </c>
       <c r="M26" t="n">
-        <v>594.0784242127844</v>
+        <v>594.0784242127843</v>
       </c>
       <c r="N26" t="n">
-        <v>580.5465056616695</v>
+        <v>580.5465056616694</v>
       </c>
       <c r="O26" t="n">
-        <v>399.9928584636068</v>
+        <v>501.1367374918125</v>
       </c>
       <c r="P26" t="n">
-        <v>410.2493520635895</v>
+        <v>410.2493520635894</v>
       </c>
       <c r="Q26" t="n">
-        <v>255.9335464320547</v>
+        <v>255.9335464320545</v>
       </c>
       <c r="R26" t="n">
-        <v>46.54642161827817</v>
+        <v>46.54642161827803</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>88.02108437890753</v>
       </c>
       <c r="K27" t="n">
-        <v>95.51821388934286</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>431.931580183436</v>
@@ -36683,7 +36683,7 @@
         <v>562.7675336002445</v>
       </c>
       <c r="N27" t="n">
-        <v>591.1925207054295</v>
+        <v>402.6308316847922</v>
       </c>
       <c r="O27" t="n">
         <v>464.5547166347827</v>
@@ -36692,7 +36692,7 @@
         <v>360.0389258787873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.11162843092256</v>
+        <v>60.11162843092242</v>
       </c>
       <c r="K28" t="n">
-        <v>164.4727479429263</v>
+        <v>164.4727479429262</v>
       </c>
       <c r="L28" t="n">
-        <v>239.9825392256379</v>
+        <v>239.9825392256378</v>
       </c>
       <c r="M28" t="n">
-        <v>259.4922532792987</v>
+        <v>259.4922532792986</v>
       </c>
       <c r="N28" t="n">
-        <v>259.0271715188213</v>
+        <v>259.0271715188211</v>
       </c>
       <c r="O28" t="n">
-        <v>236.0516292917629</v>
+        <v>236.0516292917627</v>
       </c>
       <c r="P28" t="n">
-        <v>195.28165908662</v>
+        <v>195.2816590866199</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.55800754067846</v>
+        <v>84.55800754068173</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>88.02108437890753</v>
       </c>
       <c r="K30" t="n">
-        <v>95.51821388934286</v>
+        <v>278.226516627775</v>
       </c>
       <c r="L30" t="n">
         <v>431.931580183436</v>
       </c>
       <c r="M30" t="n">
-        <v>562.7675336002445</v>
+        <v>95.97932795183229</v>
       </c>
       <c r="N30" t="n">
         <v>591.1925207054295</v>
@@ -36929,7 +36929,7 @@
         <v>360.0389258787873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.0588185310723</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.4443117649693</v>
+        <v>223.4443117649692</v>
       </c>
       <c r="K32" t="n">
-        <v>416.0265036808992</v>
+        <v>416.0265036808991</v>
       </c>
       <c r="L32" t="n">
-        <v>541.3018251841946</v>
+        <v>436.1820774440575</v>
       </c>
       <c r="M32" t="n">
-        <v>596.6681283075045</v>
+        <v>596.6681283075044</v>
       </c>
       <c r="N32" t="n">
-        <v>583.1362097563895</v>
+        <v>583.1362097563893</v>
       </c>
       <c r="O32" t="n">
-        <v>444.7606897802347</v>
+        <v>444.7606897802361</v>
       </c>
       <c r="P32" t="n">
-        <v>412.8390561583095</v>
+        <v>412.8390561583094</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.4035027866376</v>
+        <v>258.5232505267746</v>
       </c>
       <c r="R32" t="n">
-        <v>49.13612571299821</v>
+        <v>49.13612571299808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>88.02108437890753</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>431.931580183436</v>
@@ -37157,10 +37157,10 @@
         <v>562.7675336002445</v>
       </c>
       <c r="N33" t="n">
-        <v>124.4043150570176</v>
+        <v>591.1925207054295</v>
       </c>
       <c r="O33" t="n">
-        <v>464.5547166347827</v>
+        <v>364.0141119930533</v>
       </c>
       <c r="P33" t="n">
         <v>360.0389258787873</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.7013325256426</v>
+        <v>62.70133252564247</v>
       </c>
       <c r="K34" t="n">
-        <v>167.0624520376464</v>
+        <v>167.0624520376463</v>
       </c>
       <c r="L34" t="n">
-        <v>242.572243320358</v>
+        <v>242.5722433203578</v>
       </c>
       <c r="M34" t="n">
-        <v>199.087755372793</v>
+        <v>199.0877553727956</v>
       </c>
       <c r="N34" t="n">
-        <v>261.6168756135413</v>
+        <v>261.6168756135411</v>
       </c>
       <c r="O34" t="n">
-        <v>238.6413333864829</v>
+        <v>238.6413333864828</v>
       </c>
       <c r="P34" t="n">
-        <v>197.87136318134</v>
+        <v>197.8713631813399</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.14771163539851</v>
+        <v>87.14771163539837</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>88.02108437890753</v>
       </c>
       <c r="K36" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>431.931580183436</v>
@@ -37400,10 +37400,10 @@
         <v>464.5547166347827</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>360.0389258787873</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.3095387614478</v>
+        <v>7.497129510435263</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>307.7193084181724</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.4035027866376</v>
+        <v>153.4035027866378</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>88.02108437890753</v>
       </c>
       <c r="K39" t="n">
-        <v>278.226516627775</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>431.931580183436</v>
@@ -37631,10 +37631,10 @@
         <v>562.7675336002445</v>
       </c>
       <c r="N39" t="n">
-        <v>124.4043150570174</v>
+        <v>591.1925207054295</v>
       </c>
       <c r="O39" t="n">
-        <v>464.5547166347827</v>
+        <v>275.9930276141454</v>
       </c>
       <c r="P39" t="n">
         <v>360.0389258787873</v>
@@ -37795,7 +37795,7 @@
         <v>398.6066938463956</v>
       </c>
       <c r="P41" t="n">
-        <v>307.7193084181737</v>
+        <v>307.7193084181724</v>
       </c>
       <c r="Q41" t="n">
         <v>153.4035027866376</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>88.02108437890753</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>278.226516627775</v>
       </c>
       <c r="L42" t="n">
-        <v>431.931580183436</v>
+        <v>249.2232774450039</v>
       </c>
       <c r="M42" t="n">
         <v>562.7675336002445</v>
@@ -37874,10 +37874,10 @@
         <v>464.5547166347827</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>360.0389258787873</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.3095387614478</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>436.1820774440575</v>
       </c>
       <c r="M44" t="n">
-        <v>491.5483805673674</v>
+        <v>491.5483805673676</v>
       </c>
       <c r="N44" t="n">
         <v>478.0164620162524</v>
@@ -38096,13 +38096,13 @@
         <v>88.02108437890753</v>
       </c>
       <c r="K45" t="n">
-        <v>278.226516627775</v>
+        <v>243.3698911627988</v>
       </c>
       <c r="L45" t="n">
-        <v>431.931580183436</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>95.9793279518324</v>
+        <v>562.7675336002445</v>
       </c>
       <c r="N45" t="n">
         <v>591.1925207054295</v>
